--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Wiss\Semester3\Lernwerkstatt\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B289259-171B-439A-AB50-B6D5CEEB5F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D513F7F5-9449-4165-AE82-B5FF2BAC9795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5565" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitplan mit Vergleich SOLL-IST" sheetId="1" r:id="rId1"/>
@@ -891,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1127,6 +1127,27 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,6 +1157,90 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1151,9 +1256,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,106 +1268,13 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1553,8 +1562,8 @@
   </sheetPr>
   <dimension ref="A1:CA122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72:G73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43:T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,175 +1579,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:72" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="117"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="97"/>
       <c r="F1" s="1"/>
       <c r="G1" s="43"/>
       <c r="H1" s="45"/>
-      <c r="I1" s="79">
+      <c r="I1" s="86">
         <v>44529</v>
       </c>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="79">
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="86">
         <v>44536</v>
       </c>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="79">
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="86">
         <v>44543</v>
       </c>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="81"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="88"/>
       <c r="U1" s="32"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="81"/>
-      <c r="AH1" s="94"/>
-      <c r="AI1" s="80"/>
-      <c r="AJ1" s="80"/>
-      <c r="AK1" s="81"/>
+      <c r="V1" s="86">
+        <v>44564</v>
+      </c>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="87"/>
+      <c r="AJ1" s="87"/>
+      <c r="AK1" s="88"/>
       <c r="AL1" s="39"/>
-      <c r="AM1" s="94"/>
-      <c r="AN1" s="80"/>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="94"/>
-      <c r="AR1" s="80"/>
-      <c r="AS1" s="80"/>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="94"/>
-      <c r="AV1" s="80"/>
-      <c r="AW1" s="80"/>
-      <c r="AX1" s="81"/>
-      <c r="AY1" s="94"/>
-      <c r="AZ1" s="80"/>
-      <c r="BA1" s="80"/>
-      <c r="BB1" s="81"/>
-      <c r="BC1" s="94"/>
-      <c r="BD1" s="80"/>
-      <c r="BE1" s="80"/>
-      <c r="BF1" s="81"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="87"/>
+      <c r="AP1" s="88"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="87"/>
+      <c r="AS1" s="87"/>
+      <c r="AT1" s="88"/>
+      <c r="AU1" s="98"/>
+      <c r="AV1" s="87"/>
+      <c r="AW1" s="87"/>
+      <c r="AX1" s="88"/>
+      <c r="AY1" s="98"/>
+      <c r="AZ1" s="87"/>
+      <c r="BA1" s="87"/>
+      <c r="BB1" s="88"/>
+      <c r="BC1" s="98"/>
+      <c r="BD1" s="87"/>
+      <c r="BE1" s="87"/>
+      <c r="BF1" s="88"/>
       <c r="BG1" s="39"/>
-      <c r="BH1" s="94"/>
-      <c r="BI1" s="80"/>
-      <c r="BJ1" s="80"/>
-      <c r="BK1" s="81"/>
-      <c r="BL1" s="94"/>
-      <c r="BM1" s="80"/>
-      <c r="BN1" s="80"/>
-      <c r="BO1" s="81"/>
-      <c r="BP1" s="94"/>
-      <c r="BQ1" s="80"/>
-      <c r="BR1" s="80"/>
-      <c r="BS1" s="81"/>
+      <c r="BH1" s="98"/>
+      <c r="BI1" s="87"/>
+      <c r="BJ1" s="87"/>
+      <c r="BK1" s="88"/>
+      <c r="BL1" s="98"/>
+      <c r="BM1" s="87"/>
+      <c r="BN1" s="87"/>
+      <c r="BO1" s="88"/>
+      <c r="BP1" s="98"/>
+      <c r="BQ1" s="87"/>
+      <c r="BR1" s="87"/>
+      <c r="BS1" s="88"/>
       <c r="BT1" s="49"/>
     </row>
     <row r="2" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118" t="s">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="119"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="46"/>
-      <c r="I2" s="95">
+      <c r="I2" s="93">
         <v>3</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="95">
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="93">
         <v>3</v>
       </c>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="95">
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="93">
         <v>3</v>
       </c>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="97"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="95"/>
       <c r="U2" s="3"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="96"/>
-      <c r="X2" s="96"/>
-      <c r="Y2" s="97"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="97"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="96"/>
-      <c r="AF2" s="96"/>
-      <c r="AG2" s="97"/>
-      <c r="AH2" s="95"/>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="96"/>
-      <c r="AK2" s="97"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="93"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="95"/>
+      <c r="AH2" s="93"/>
+      <c r="AI2" s="94"/>
+      <c r="AJ2" s="94"/>
+      <c r="AK2" s="95"/>
       <c r="AL2" s="3"/>
-      <c r="AM2" s="95"/>
-      <c r="AN2" s="96"/>
-      <c r="AO2" s="96"/>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="95"/>
-      <c r="AR2" s="96"/>
-      <c r="AS2" s="96"/>
-      <c r="AT2" s="97"/>
-      <c r="AU2" s="95"/>
-      <c r="AV2" s="96"/>
-      <c r="AW2" s="96"/>
-      <c r="AX2" s="97"/>
-      <c r="AY2" s="95"/>
-      <c r="AZ2" s="96"/>
-      <c r="BA2" s="96"/>
-      <c r="BB2" s="97"/>
-      <c r="BC2" s="95"/>
-      <c r="BD2" s="96"/>
-      <c r="BE2" s="96"/>
-      <c r="BF2" s="97"/>
+      <c r="AM2" s="93"/>
+      <c r="AN2" s="94"/>
+      <c r="AO2" s="94"/>
+      <c r="AP2" s="95"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="94"/>
+      <c r="AS2" s="94"/>
+      <c r="AT2" s="95"/>
+      <c r="AU2" s="93"/>
+      <c r="AV2" s="94"/>
+      <c r="AW2" s="94"/>
+      <c r="AX2" s="95"/>
+      <c r="AY2" s="93"/>
+      <c r="AZ2" s="94"/>
+      <c r="BA2" s="94"/>
+      <c r="BB2" s="95"/>
+      <c r="BC2" s="93"/>
+      <c r="BD2" s="94"/>
+      <c r="BE2" s="94"/>
+      <c r="BF2" s="95"/>
       <c r="BG2" s="3"/>
-      <c r="BH2" s="95"/>
-      <c r="BI2" s="96"/>
-      <c r="BJ2" s="96"/>
-      <c r="BK2" s="97"/>
-      <c r="BL2" s="95"/>
-      <c r="BM2" s="96"/>
-      <c r="BN2" s="96"/>
-      <c r="BO2" s="97"/>
-      <c r="BP2" s="95"/>
-      <c r="BQ2" s="96"/>
-      <c r="BR2" s="96"/>
-      <c r="BS2" s="97"/>
+      <c r="BH2" s="93"/>
+      <c r="BI2" s="94"/>
+      <c r="BJ2" s="94"/>
+      <c r="BK2" s="95"/>
+      <c r="BL2" s="93"/>
+      <c r="BM2" s="94"/>
+      <c r="BN2" s="94"/>
+      <c r="BO2" s="95"/>
+      <c r="BP2" s="93"/>
+      <c r="BQ2" s="94"/>
+      <c r="BR2" s="94"/>
+      <c r="BS2" s="95"/>
       <c r="BT2" s="50"/>
     </row>
     <row r="3" spans="1:72" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="101"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="115"/>
       <c r="F3" s="67" t="s">
         <v>1</v>
       </c>
@@ -1812,15 +1823,15 @@
       <c r="BT3" s="51"/>
     </row>
     <row r="4" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
       <c r="H4" s="55"/>
       <c r="I4" s="35"/>
       <c r="J4" s="14"/>
@@ -1888,13 +1899,13 @@
       <c r="BT4" s="52"/>
     </row>
     <row r="5" spans="1:72" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
+      <c r="A5" s="91"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="55"/>
       <c r="I5" s="56"/>
       <c r="J5" s="57"/>
@@ -1963,16 +1974,16 @@
     </row>
     <row r="6" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="87">
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="92">
         <v>2</v>
       </c>
-      <c r="G6" s="87">
+      <c r="G6" s="92">
         <v>2</v>
       </c>
       <c r="H6" s="55"/>
@@ -2043,12 +2054,12 @@
     </row>
     <row r="7" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
       <c r="H7" s="55"/>
       <c r="I7" s="73"/>
       <c r="J7" s="57"/>
@@ -2117,23 +2128,23 @@
     </row>
     <row r="8" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87">
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92">
         <v>0.5</v>
       </c>
-      <c r="G8" s="87">
+      <c r="G8" s="92">
         <v>0.5</v>
       </c>
       <c r="H8" s="55"/>
-      <c r="I8" s="120"/>
+      <c r="I8" s="79"/>
       <c r="J8" s="70"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="122"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="81"/>
       <c r="M8" s="24"/>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
@@ -2197,17 +2208,17 @@
     </row>
     <row r="9" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
       <c r="H9" s="55"/>
-      <c r="I9" s="120"/>
+      <c r="I9" s="79"/>
       <c r="J9" s="74"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="122"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="81"/>
       <c r="M9" s="24"/>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
@@ -2271,16 +2282,16 @@
     </row>
     <row r="10" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="87">
+      <c r="C10" s="101"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="92">
         <v>0.25</v>
       </c>
-      <c r="G10" s="87"/>
+      <c r="G10" s="92"/>
       <c r="H10" s="55"/>
       <c r="I10" s="56"/>
       <c r="J10" s="57"/>
@@ -2349,12 +2360,12 @@
     </row>
     <row r="11" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
       <c r="H11" s="55"/>
       <c r="I11" s="56"/>
       <c r="J11" s="57"/>
@@ -2423,12 +2434,12 @@
     </row>
     <row r="12" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
       <c r="H12" s="55"/>
       <c r="I12" s="56"/>
       <c r="J12" s="57"/>
@@ -2497,12 +2508,12 @@
     </row>
     <row r="13" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
       <c r="H13" s="55"/>
       <c r="I13" s="56"/>
       <c r="J13" s="57"/>
@@ -2571,12 +2582,12 @@
     </row>
     <row r="14" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
       <c r="H14" s="55"/>
       <c r="I14" s="56"/>
       <c r="J14" s="57"/>
@@ -2645,12 +2656,12 @@
     </row>
     <row r="15" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
       <c r="H15" s="55"/>
       <c r="I15" s="56"/>
       <c r="J15" s="57"/>
@@ -2719,17 +2730,17 @@
     </row>
     <row r="16" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
       <c r="H16" s="55"/>
       <c r="I16" s="56"/>
       <c r="J16" s="57"/>
       <c r="K16" s="57"/>
-      <c r="L16" s="90"/>
+      <c r="L16" s="124"/>
       <c r="M16" s="24"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
@@ -2793,17 +2804,17 @@
     </row>
     <row r="17" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
       <c r="H17" s="55"/>
       <c r="I17" s="56"/>
       <c r="J17" s="57"/>
       <c r="K17" s="57"/>
-      <c r="L17" s="91"/>
+      <c r="L17" s="125"/>
       <c r="M17" s="24"/>
       <c r="N17" s="25"/>
       <c r="O17" s="25"/>
@@ -2867,17 +2878,17 @@
     </row>
     <row r="18" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
-      <c r="B18" s="99" t="s">
+      <c r="B18" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="98">
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="106">
         <f>SUM(F6:F15)</f>
         <v>2.75</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="106">
         <f>SUM(G6:G15)</f>
         <v>2.5</v>
       </c>
@@ -2949,12 +2960,12 @@
     </row>
     <row r="19" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
       <c r="H19" s="55"/>
       <c r="I19" s="56"/>
       <c r="J19" s="57"/>
@@ -3022,15 +3033,15 @@
       <c r="BT19" s="52"/>
     </row>
     <row r="20" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="102" t="s">
+      <c r="A20" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
       <c r="H20" s="55"/>
       <c r="I20" s="64"/>
       <c r="J20" s="65"/>
@@ -3098,13 +3109,13 @@
       <c r="BT20" s="52"/>
     </row>
     <row r="21" spans="1:72" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="102"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
       <c r="H21" s="55"/>
       <c r="I21" s="38"/>
       <c r="J21" s="25"/>
@@ -3173,14 +3184,14 @@
     </row>
     <row r="22" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="55"/>
       <c r="I22" s="38"/>
       <c r="J22" s="25"/>
@@ -3249,12 +3260,12 @@
     </row>
     <row r="23" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
       <c r="H23" s="55"/>
       <c r="I23" s="38"/>
       <c r="J23" s="25"/>
@@ -3323,20 +3334,20 @@
     </row>
     <row r="24" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
       <c r="H24" s="55"/>
       <c r="I24" s="38"/>
       <c r="J24" s="25"/>
       <c r="K24" s="25"/>
       <c r="L24" s="26"/>
-      <c r="M24" s="123"/>
+      <c r="M24" s="82"/>
       <c r="N24" s="72"/>
       <c r="O24" s="25"/>
       <c r="P24" s="26"/>
@@ -3399,18 +3410,18 @@
     </row>
     <row r="25" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
       <c r="H25" s="55"/>
       <c r="I25" s="38"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="26"/>
-      <c r="M25" s="124"/>
+      <c r="M25" s="83"/>
       <c r="N25" s="76"/>
       <c r="O25" s="76"/>
       <c r="P25" s="26"/>
@@ -3473,14 +3484,14 @@
     </row>
     <row r="26" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
       <c r="H26" s="55"/>
       <c r="I26" s="38"/>
       <c r="J26" s="25"/>
@@ -3549,12 +3560,12 @@
     </row>
     <row r="27" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="87"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
       <c r="H27" s="55"/>
       <c r="I27" s="38"/>
       <c r="J27" s="25"/>
@@ -3623,12 +3634,12 @@
     </row>
     <row r="28" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
       <c r="H28" s="55"/>
       <c r="I28" s="38"/>
       <c r="J28" s="25"/>
@@ -3697,12 +3708,12 @@
     </row>
     <row r="29" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
       <c r="H29" s="55"/>
       <c r="I29" s="36"/>
       <c r="J29" s="18"/>
@@ -3771,12 +3782,12 @@
     </row>
     <row r="30" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
       <c r="H30" s="55"/>
       <c r="I30" s="36"/>
       <c r="J30" s="18"/>
@@ -3786,7 +3797,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="25"/>
       <c r="P30" s="26"/>
-      <c r="Q30" s="88"/>
+      <c r="Q30" s="122"/>
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
       <c r="T30" s="26"/>
@@ -3845,12 +3856,12 @@
     </row>
     <row r="31" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
       <c r="H31" s="55"/>
       <c r="I31" s="36"/>
       <c r="J31" s="18"/>
@@ -3860,7 +3871,7 @@
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
       <c r="P31" s="26"/>
-      <c r="Q31" s="89"/>
+      <c r="Q31" s="123"/>
       <c r="R31" s="25"/>
       <c r="S31" s="25"/>
       <c r="T31" s="26"/>
@@ -3919,17 +3930,17 @@
     </row>
     <row r="32" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
-      <c r="B32" s="99" t="s">
+      <c r="B32" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="98">
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="106">
         <f>SUM(F22:F29)</f>
         <v>0</v>
       </c>
-      <c r="G32" s="98">
+      <c r="G32" s="106">
         <f>SUM(G22:G29)</f>
         <v>0</v>
       </c>
@@ -4001,12 +4012,12 @@
     </row>
     <row r="33" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
       <c r="H33" s="55"/>
       <c r="I33" s="36"/>
       <c r="J33" s="18"/>
@@ -4074,15 +4085,15 @@
       <c r="BT33" s="52"/>
     </row>
     <row r="34" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="102" t="s">
+      <c r="A34" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="91"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
       <c r="H34" s="55"/>
       <c r="I34" s="35"/>
       <c r="J34" s="14"/>
@@ -4150,13 +4161,13 @@
       <c r="BT34" s="52"/>
     </row>
     <row r="35" spans="1:72" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="102"/>
-      <c r="B35" s="102"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="102"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
+      <c r="A35" s="91"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
       <c r="H35" s="55"/>
       <c r="I35" s="36"/>
       <c r="J35" s="18"/>
@@ -4225,14 +4236,14 @@
     </row>
     <row r="36" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="114"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="104"/>
       <c r="H36" s="48"/>
       <c r="I36" s="36"/>
       <c r="J36" s="18"/>
@@ -4301,12 +4312,12 @@
     </row>
     <row r="37" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="115"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="105"/>
       <c r="H37" s="48"/>
       <c r="I37" s="36"/>
       <c r="J37" s="18"/>
@@ -4375,17 +4386,17 @@
     </row>
     <row r="38" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
-      <c r="B38" s="99" t="s">
+      <c r="B38" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="110">
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="108">
         <f>SUM(F36:F37)</f>
         <v>0</v>
       </c>
-      <c r="G38" s="110">
+      <c r="G38" s="108">
         <f>SUM(G32,G36)</f>
         <v>0</v>
       </c>
@@ -4457,12 +4468,12 @@
     </row>
     <row r="39" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="111"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="109"/>
+      <c r="G39" s="109"/>
       <c r="H39" s="48"/>
       <c r="I39" s="36"/>
       <c r="J39" s="18"/>
@@ -4530,15 +4541,15 @@
       <c r="BT39" s="52"/>
     </row>
     <row r="40" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="102"/>
-      <c r="C40" s="102"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="102"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="91"/>
+      <c r="E40" s="91"/>
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
       <c r="H40" s="55"/>
       <c r="I40" s="37"/>
       <c r="J40" s="22"/>
@@ -4606,13 +4617,13 @@
       <c r="BT40" s="52"/>
     </row>
     <row r="41" spans="1:72" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="102"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="102"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
+      <c r="A41" s="91"/>
+      <c r="B41" s="91"/>
+      <c r="C41" s="91"/>
+      <c r="D41" s="91"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
+      <c r="G41" s="91"/>
       <c r="H41" s="55"/>
       <c r="I41" s="37"/>
       <c r="J41" s="22"/>
@@ -4681,14 +4692,14 @@
     </row>
     <row r="42" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
       <c r="H42" s="55"/>
       <c r="I42" s="35"/>
       <c r="J42" s="22"/>
@@ -4757,12 +4768,12 @@
     </row>
     <row r="43" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
       <c r="H43" s="55"/>
       <c r="I43" s="36"/>
       <c r="J43" s="22"/>
@@ -4774,13 +4785,13 @@
       <c r="P43" s="19"/>
       <c r="Q43" s="24"/>
       <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="26"/>
+      <c r="S43" s="76"/>
+      <c r="T43" s="78"/>
       <c r="U43" s="33"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="25"/>
-      <c r="X43" s="25"/>
-      <c r="Y43" s="26"/>
+      <c r="V43" s="126"/>
+      <c r="W43" s="127"/>
+      <c r="X43" s="127"/>
+      <c r="Y43" s="128"/>
       <c r="Z43" s="17"/>
       <c r="AA43" s="18"/>
       <c r="AB43" s="18"/>
@@ -4831,14 +4842,16 @@
     </row>
     <row r="44" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
+      <c r="E44" s="101"/>
+      <c r="F44" s="92">
+        <v>3</v>
+      </c>
+      <c r="G44" s="92"/>
       <c r="H44" s="55"/>
       <c r="I44" s="37"/>
       <c r="J44" s="22"/>
@@ -4853,10 +4866,10 @@
       <c r="S44" s="25"/>
       <c r="T44" s="26"/>
       <c r="U44" s="33"/>
-      <c r="V44" s="38"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="26"/>
+      <c r="V44" s="83"/>
+      <c r="W44" s="76"/>
+      <c r="X44" s="76"/>
+      <c r="Y44" s="78"/>
       <c r="Z44" s="17"/>
       <c r="AA44" s="18"/>
       <c r="AB44" s="18"/>
@@ -4907,12 +4920,12 @@
     </row>
     <row r="45" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
+      <c r="E45" s="101"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
       <c r="H45" s="55"/>
       <c r="I45" s="37"/>
       <c r="J45" s="18"/>
@@ -4981,14 +4994,16 @@
     </row>
     <row r="46" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
-      <c r="B46" s="92" t="s">
+      <c r="B46" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="92">
+        <v>6</v>
+      </c>
+      <c r="G46" s="92"/>
       <c r="H46" s="55"/>
       <c r="I46" s="35"/>
       <c r="J46" s="18"/>
@@ -5057,12 +5072,12 @@
     </row>
     <row r="47" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="92"/>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
       <c r="H47" s="55"/>
       <c r="I47" s="36"/>
       <c r="J47" s="18"/>
@@ -5131,14 +5146,14 @@
     </row>
     <row r="48" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
-      <c r="B48" s="92" t="s">
+      <c r="B48" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
       <c r="H48" s="55"/>
       <c r="I48" s="37"/>
       <c r="J48" s="18"/>
@@ -5207,12 +5222,12 @@
     </row>
     <row r="49" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="B49" s="101"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
       <c r="H49" s="55"/>
       <c r="I49" s="37"/>
       <c r="J49" s="18"/>
@@ -5281,14 +5296,14 @@
     </row>
     <row r="50" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
-      <c r="B50" s="87" t="s">
+      <c r="B50" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="92"/>
       <c r="H50" s="55"/>
       <c r="I50" s="44"/>
       <c r="J50" s="18"/>
@@ -5357,12 +5372,12 @@
     </row>
     <row r="51" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="92"/>
       <c r="H51" s="55"/>
       <c r="I51" s="44"/>
       <c r="J51" s="18"/>
@@ -5431,12 +5446,12 @@
     </row>
     <row r="52" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="92"/>
       <c r="H52" s="55"/>
       <c r="I52" s="44"/>
       <c r="J52" s="18"/>
@@ -5501,12 +5516,12 @@
     </row>
     <row r="53" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="92"/>
       <c r="H53" s="55"/>
       <c r="I53" s="44"/>
       <c r="J53" s="18"/>
@@ -5575,14 +5590,14 @@
     </row>
     <row r="54" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29"/>
-      <c r="B54" s="87" t="s">
+      <c r="B54" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
       <c r="H54" s="55"/>
       <c r="I54" s="44"/>
       <c r="J54" s="18"/>
@@ -5618,7 +5633,7 @@
       <c r="AN54" s="61"/>
       <c r="AO54" s="61"/>
       <c r="AP54" s="62"/>
-      <c r="AQ54" s="88"/>
+      <c r="AQ54" s="122"/>
       <c r="AR54" s="61"/>
       <c r="AS54" s="61"/>
       <c r="AT54" s="62"/>
@@ -5651,12 +5666,12 @@
     </row>
     <row r="55" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="29"/>
-      <c r="B55" s="87"/>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="F55" s="87"/>
-      <c r="G55" s="87"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="92"/>
       <c r="H55" s="55"/>
       <c r="I55" s="44"/>
       <c r="J55" s="18"/>
@@ -5692,7 +5707,7 @@
       <c r="AN55" s="14"/>
       <c r="AO55" s="14"/>
       <c r="AP55" s="15"/>
-      <c r="AQ55" s="89"/>
+      <c r="AQ55" s="123"/>
       <c r="AR55" s="61"/>
       <c r="AS55" s="61"/>
       <c r="AT55" s="62"/>
@@ -5725,17 +5740,17 @@
     </row>
     <row r="56" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="99" t="s">
+      <c r="B56" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="99"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
-      <c r="F56" s="98">
+      <c r="C56" s="107"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="106">
         <f>SUM(F38,F42:F53)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
-      <c r="G56" s="98">
+      <c r="G56" s="106">
         <f>SUM(G38,G42:G53)</f>
         <v>0</v>
       </c>
@@ -5807,12 +5822,12 @@
     </row>
     <row r="57" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="99"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99"/>
-      <c r="E57" s="99"/>
-      <c r="F57" s="98"/>
-      <c r="G57" s="98"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
       <c r="H57" s="55"/>
       <c r="I57" s="37"/>
       <c r="J57" s="18"/>
@@ -5880,15 +5895,15 @@
       <c r="BT57" s="52"/>
     </row>
     <row r="58" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="102" t="s">
+      <c r="A58" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="102"/>
-      <c r="C58" s="102"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="102"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="91"/>
+      <c r="E58" s="91"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
       <c r="H58" s="55"/>
       <c r="I58" s="35"/>
       <c r="J58" s="18"/>
@@ -5956,13 +5971,13 @@
       <c r="BT58" s="52"/>
     </row>
     <row r="59" spans="1:72" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="102"/>
-      <c r="B59" s="102"/>
-      <c r="C59" s="102"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="102"/>
-      <c r="G59" s="102"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
+      <c r="E59" s="91"/>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
       <c r="H59" s="55"/>
       <c r="I59" s="36"/>
       <c r="J59" s="18"/>
@@ -6031,12 +6046,12 @@
     </row>
     <row r="60" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="87"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="92"/>
       <c r="H60" s="55"/>
       <c r="I60" s="35"/>
       <c r="J60" s="18"/>
@@ -6105,12 +6120,12 @@
     </row>
     <row r="61" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="92"/>
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
+      <c r="B61" s="101"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="101"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="92"/>
       <c r="H61" s="55"/>
       <c r="I61" s="36"/>
       <c r="J61" s="18"/>
@@ -6179,12 +6194,12 @@
     </row>
     <row r="62" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="92"/>
       <c r="H62" s="55"/>
       <c r="I62" s="36"/>
       <c r="J62" s="18"/>
@@ -6253,12 +6268,12 @@
     </row>
     <row r="63" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="92"/>
       <c r="H63" s="55"/>
       <c r="I63" s="36"/>
       <c r="J63" s="18"/>
@@ -6327,14 +6342,14 @@
     </row>
     <row r="64" spans="1:72" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="87" t="s">
+      <c r="B64" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="C64" s="87"/>
-      <c r="D64" s="87"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="92"/>
       <c r="H64" s="55"/>
       <c r="I64" s="36"/>
       <c r="J64" s="18"/>
@@ -6380,7 +6395,7 @@
       <c r="AX64" s="26"/>
       <c r="AY64" s="60"/>
       <c r="AZ64" s="61"/>
-      <c r="BA64" s="82"/>
+      <c r="BA64" s="117"/>
       <c r="BB64" s="62"/>
       <c r="BC64" s="13"/>
       <c r="BD64" s="14"/>
@@ -6403,12 +6418,12 @@
     </row>
     <row r="65" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="87"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
       <c r="H65" s="55"/>
       <c r="I65" s="36"/>
       <c r="J65" s="18"/>
@@ -6454,7 +6469,7 @@
       <c r="AX65" s="26"/>
       <c r="AY65" s="60"/>
       <c r="AZ65" s="61"/>
-      <c r="BA65" s="83"/>
+      <c r="BA65" s="118"/>
       <c r="BB65" s="62"/>
       <c r="BC65" s="13"/>
       <c r="BD65" s="14"/>
@@ -6477,17 +6492,17 @@
     </row>
     <row r="66" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="99" t="s">
+      <c r="B66" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="99"/>
-      <c r="D66" s="99"/>
-      <c r="E66" s="99"/>
-      <c r="F66" s="98">
+      <c r="C66" s="107"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="106">
         <f>SUM(F56,F60:F63)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
-      <c r="G66" s="98">
+      <c r="G66" s="106">
         <f>SUM(G56,G60:G63)</f>
         <v>0</v>
       </c>
@@ -6559,12 +6574,12 @@
     </row>
     <row r="67" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
-      <c r="B67" s="99"/>
-      <c r="C67" s="99"/>
-      <c r="D67" s="99"/>
-      <c r="E67" s="99"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="98"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="107"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="106"/>
       <c r="H67" s="55"/>
       <c r="I67" s="37"/>
       <c r="J67" s="18"/>
@@ -6632,15 +6647,15 @@
       <c r="BT67" s="52"/>
     </row>
     <row r="68" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="102" t="s">
+      <c r="A68" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="102"/>
-      <c r="C68" s="102"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="102"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="91"/>
+      <c r="E68" s="91"/>
+      <c r="F68" s="91"/>
+      <c r="G68" s="91"/>
       <c r="H68" s="55"/>
       <c r="I68" s="37"/>
       <c r="J68" s="18"/>
@@ -6708,13 +6723,13 @@
       <c r="BT68" s="52"/>
     </row>
     <row r="69" spans="1:73" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="102"/>
-      <c r="B69" s="102"/>
-      <c r="C69" s="102"/>
-      <c r="D69" s="102"/>
-      <c r="E69" s="102"/>
-      <c r="F69" s="102"/>
-      <c r="G69" s="102"/>
+      <c r="A69" s="91"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
       <c r="H69" s="55"/>
       <c r="I69" s="37"/>
       <c r="J69" s="18"/>
@@ -6783,16 +6798,16 @@
     </row>
     <row r="70" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="92" t="s">
+      <c r="B70" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="92"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="87">
+      <c r="C70" s="101"/>
+      <c r="D70" s="101"/>
+      <c r="E70" s="101"/>
+      <c r="F70" s="92">
         <v>0.06</v>
       </c>
-      <c r="G70" s="87">
+      <c r="G70" s="92">
         <v>0.06</v>
       </c>
       <c r="H70" s="55"/>
@@ -6863,12 +6878,12 @@
     </row>
     <row r="71" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="92"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
+      <c r="B71" s="101"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="92"/>
       <c r="H71" s="55"/>
       <c r="I71" s="37"/>
       <c r="J71" s="18"/>
@@ -6877,7 +6892,7 @@
       <c r="M71" s="17"/>
       <c r="N71" s="18"/>
       <c r="O71" s="18"/>
-      <c r="P71" s="125"/>
+      <c r="P71" s="84"/>
       <c r="Q71" s="24"/>
       <c r="R71" s="25"/>
       <c r="S71" s="25"/>
@@ -6937,12 +6952,12 @@
     </row>
     <row r="72" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="87"/>
-      <c r="C72" s="87"/>
-      <c r="D72" s="87"/>
-      <c r="E72" s="87"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="87"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92"/>
       <c r="H72" s="55"/>
       <c r="I72" s="44"/>
       <c r="J72" s="18"/>
@@ -7011,12 +7026,12 @@
     </row>
     <row r="73" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="B73" s="87"/>
-      <c r="C73" s="87"/>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="87"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="92"/>
       <c r="H73" s="55"/>
       <c r="I73" s="44"/>
       <c r="J73" s="18"/>
@@ -7085,12 +7100,12 @@
     </row>
     <row r="74" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="87"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="87"/>
-      <c r="E74" s="87"/>
-      <c r="F74" s="87"/>
-      <c r="G74" s="87"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
       <c r="H74" s="55"/>
       <c r="I74" s="44"/>
       <c r="J74" s="18"/>
@@ -7159,12 +7174,12 @@
     </row>
     <row r="75" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
-      <c r="B75" s="87"/>
-      <c r="C75" s="87"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="87"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="92"/>
+      <c r="G75" s="92"/>
       <c r="H75" s="55"/>
       <c r="I75" s="44"/>
       <c r="J75" s="18"/>
@@ -7233,12 +7248,12 @@
     </row>
     <row r="76" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="B76" s="87"/>
-      <c r="C76" s="87"/>
-      <c r="D76" s="87"/>
-      <c r="E76" s="87"/>
-      <c r="F76" s="87"/>
-      <c r="G76" s="87"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="92"/>
+      <c r="G76" s="92"/>
       <c r="H76" s="55"/>
       <c r="I76" s="44"/>
       <c r="J76" s="18"/>
@@ -7307,12 +7322,12 @@
     </row>
     <row r="77" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
-      <c r="B77" s="87"/>
-      <c r="C77" s="87"/>
-      <c r="D77" s="87"/>
-      <c r="E77" s="87"/>
-      <c r="F77" s="87"/>
-      <c r="G77" s="87"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="92"/>
       <c r="H77" s="55"/>
       <c r="I77" s="44"/>
       <c r="J77" s="18"/>
@@ -7381,12 +7396,12 @@
     </row>
     <row r="78" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="B78" s="92"/>
-      <c r="C78" s="92"/>
-      <c r="D78" s="92"/>
-      <c r="E78" s="92"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
+      <c r="B78" s="101"/>
+      <c r="C78" s="101"/>
+      <c r="D78" s="101"/>
+      <c r="E78" s="101"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
       <c r="H78" s="55"/>
       <c r="I78" s="35"/>
       <c r="J78" s="18"/>
@@ -7456,12 +7471,12 @@
     </row>
     <row r="79" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
-      <c r="B79" s="92"/>
-      <c r="C79" s="92"/>
-      <c r="D79" s="92"/>
-      <c r="E79" s="92"/>
-      <c r="F79" s="87"/>
-      <c r="G79" s="87"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="101"/>
+      <c r="E79" s="101"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="92"/>
       <c r="H79" s="55"/>
       <c r="I79" s="36"/>
       <c r="J79" s="18"/>
@@ -7531,14 +7546,14 @@
     </row>
     <row r="80" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
-      <c r="B80" s="87" t="s">
+      <c r="B80" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C80" s="87"/>
-      <c r="D80" s="87"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="87"/>
-      <c r="G80" s="87"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="92"/>
+      <c r="G80" s="92"/>
       <c r="H80" s="55"/>
       <c r="I80" s="36"/>
       <c r="J80" s="18"/>
@@ -7602,18 +7617,18 @@
       <c r="BP80" s="24"/>
       <c r="BQ80" s="25"/>
       <c r="BR80" s="25"/>
-      <c r="BS80" s="85"/>
+      <c r="BS80" s="120"/>
       <c r="BT80" s="52"/>
       <c r="BU80"/>
     </row>
     <row r="81" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="87"/>
-      <c r="C81" s="87"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="87"/>
-      <c r="F81" s="87"/>
-      <c r="G81" s="87"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="92"/>
+      <c r="G81" s="92"/>
       <c r="H81" s="55"/>
       <c r="I81" s="36"/>
       <c r="J81" s="18"/>
@@ -7677,23 +7692,23 @@
       <c r="BP81" s="24"/>
       <c r="BQ81" s="25"/>
       <c r="BR81" s="25"/>
-      <c r="BS81" s="86"/>
+      <c r="BS81" s="121"/>
       <c r="BT81" s="52"/>
       <c r="BU81"/>
     </row>
     <row r="82" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
-      <c r="B82" s="99" t="s">
+      <c r="B82" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="C82" s="99"/>
-      <c r="D82" s="99"/>
-      <c r="E82" s="99"/>
-      <c r="F82" s="98">
+      <c r="C82" s="107"/>
+      <c r="D82" s="107"/>
+      <c r="E82" s="107"/>
+      <c r="F82" s="106">
         <f>SUM(F66,F70:F79)</f>
-        <v>0.06</v>
+        <v>9.06</v>
       </c>
-      <c r="G82" s="98">
+      <c r="G82" s="106">
         <f>SUM(G66,G70:G79)</f>
         <v>0.06</v>
       </c>
@@ -7766,12 +7781,12 @@
     </row>
     <row r="83" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
-      <c r="B83" s="99"/>
-      <c r="C83" s="99"/>
-      <c r="D83" s="99"/>
-      <c r="E83" s="99"/>
-      <c r="F83" s="98"/>
-      <c r="G83" s="98"/>
+      <c r="B83" s="107"/>
+      <c r="C83" s="107"/>
+      <c r="D83" s="107"/>
+      <c r="E83" s="107"/>
+      <c r="F83" s="106"/>
+      <c r="G83" s="106"/>
       <c r="H83" s="55"/>
       <c r="I83" s="37"/>
       <c r="J83" s="18"/>
@@ -7840,1064 +7855,1064 @@
       <c r="BU83"/>
     </row>
     <row r="84" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="100"/>
-      <c r="B84" s="100"/>
-      <c r="C84" s="100"/>
-      <c r="D84" s="100"/>
-      <c r="E84" s="100"/>
-      <c r="F84" s="100"/>
-      <c r="G84" s="100"/>
-      <c r="H84" s="93"/>
-      <c r="I84" s="93"/>
-      <c r="J84" s="93"/>
-      <c r="K84" s="93"/>
-      <c r="L84" s="93"/>
-      <c r="M84" s="93"/>
-      <c r="N84" s="93"/>
-      <c r="O84" s="93"/>
-      <c r="P84" s="93"/>
-      <c r="Q84" s="93"/>
-      <c r="R84" s="93"/>
-      <c r="S84" s="93"/>
-      <c r="T84" s="93"/>
-      <c r="U84" s="93"/>
-      <c r="V84" s="93"/>
-      <c r="W84" s="93"/>
-      <c r="X84" s="93"/>
-      <c r="Y84" s="93"/>
-      <c r="Z84" s="93"/>
-      <c r="AA84" s="93"/>
-      <c r="AB84" s="93"/>
-      <c r="AC84" s="93"/>
-      <c r="AD84" s="93"/>
-      <c r="AE84" s="93"/>
-      <c r="AF84" s="93"/>
-      <c r="AG84" s="93"/>
-      <c r="AH84" s="93"/>
-      <c r="AI84" s="93"/>
-      <c r="AJ84" s="93"/>
-      <c r="AK84" s="93"/>
-      <c r="AL84" s="93"/>
-      <c r="AM84" s="93"/>
-      <c r="AN84" s="93"/>
-      <c r="AO84" s="93"/>
-      <c r="AP84" s="93"/>
-      <c r="AQ84" s="93"/>
-      <c r="AR84" s="93"/>
-      <c r="AS84" s="93"/>
-      <c r="AT84" s="93"/>
-      <c r="AU84" s="93"/>
-      <c r="AV84" s="93"/>
-      <c r="AW84" s="93"/>
-      <c r="AX84" s="93"/>
-      <c r="AY84" s="93"/>
-      <c r="AZ84" s="93"/>
-      <c r="BA84" s="93"/>
-      <c r="BB84" s="93"/>
-      <c r="BC84" s="93"/>
-      <c r="BD84" s="93"/>
-      <c r="BE84" s="93"/>
-      <c r="BF84" s="93"/>
-      <c r="BG84" s="93"/>
-      <c r="BH84" s="93"/>
-      <c r="BI84" s="93"/>
-      <c r="BJ84" s="93"/>
-      <c r="BK84" s="93"/>
-      <c r="BL84" s="93"/>
-      <c r="BM84" s="93"/>
-      <c r="BN84" s="93"/>
-      <c r="BO84" s="93"/>
-      <c r="BP84" s="93"/>
-      <c r="BQ84" s="93"/>
-      <c r="BR84" s="93"/>
-      <c r="BS84" s="93"/>
-      <c r="BT84" s="93"/>
+      <c r="A84" s="90"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="90"/>
+      <c r="E84" s="90"/>
+      <c r="F84" s="90"/>
+      <c r="G84" s="90"/>
+      <c r="H84" s="85"/>
+      <c r="I84" s="85"/>
+      <c r="J84" s="85"/>
+      <c r="K84" s="85"/>
+      <c r="L84" s="85"/>
+      <c r="M84" s="85"/>
+      <c r="N84" s="85"/>
+      <c r="O84" s="85"/>
+      <c r="P84" s="85"/>
+      <c r="Q84" s="85"/>
+      <c r="R84" s="85"/>
+      <c r="S84" s="85"/>
+      <c r="T84" s="85"/>
+      <c r="U84" s="85"/>
+      <c r="V84" s="85"/>
+      <c r="W84" s="85"/>
+      <c r="X84" s="85"/>
+      <c r="Y84" s="85"/>
+      <c r="Z84" s="85"/>
+      <c r="AA84" s="85"/>
+      <c r="AB84" s="85"/>
+      <c r="AC84" s="85"/>
+      <c r="AD84" s="85"/>
+      <c r="AE84" s="85"/>
+      <c r="AF84" s="85"/>
+      <c r="AG84" s="85"/>
+      <c r="AH84" s="85"/>
+      <c r="AI84" s="85"/>
+      <c r="AJ84" s="85"/>
+      <c r="AK84" s="85"/>
+      <c r="AL84" s="85"/>
+      <c r="AM84" s="85"/>
+      <c r="AN84" s="85"/>
+      <c r="AO84" s="85"/>
+      <c r="AP84" s="85"/>
+      <c r="AQ84" s="85"/>
+      <c r="AR84" s="85"/>
+      <c r="AS84" s="85"/>
+      <c r="AT84" s="85"/>
+      <c r="AU84" s="85"/>
+      <c r="AV84" s="85"/>
+      <c r="AW84" s="85"/>
+      <c r="AX84" s="85"/>
+      <c r="AY84" s="85"/>
+      <c r="AZ84" s="85"/>
+      <c r="BA84" s="85"/>
+      <c r="BB84" s="85"/>
+      <c r="BC84" s="85"/>
+      <c r="BD84" s="85"/>
+      <c r="BE84" s="85"/>
+      <c r="BF84" s="85"/>
+      <c r="BG84" s="85"/>
+      <c r="BH84" s="85"/>
+      <c r="BI84" s="85"/>
+      <c r="BJ84" s="85"/>
+      <c r="BK84" s="85"/>
+      <c r="BL84" s="85"/>
+      <c r="BM84" s="85"/>
+      <c r="BN84" s="85"/>
+      <c r="BO84" s="85"/>
+      <c r="BP84" s="85"/>
+      <c r="BQ84" s="85"/>
+      <c r="BR84" s="85"/>
+      <c r="BS84" s="85"/>
+      <c r="BT84" s="85"/>
       <c r="BU84"/>
     </row>
     <row r="85" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="100"/>
-      <c r="B85" s="100"/>
-      <c r="C85" s="100"/>
-      <c r="D85" s="100"/>
-      <c r="E85" s="100"/>
-      <c r="F85" s="100"/>
-      <c r="G85" s="100"/>
-      <c r="H85" s="93"/>
-      <c r="I85" s="93"/>
-      <c r="J85" s="93"/>
-      <c r="K85" s="93"/>
-      <c r="L85" s="93"/>
-      <c r="M85" s="93"/>
-      <c r="N85" s="93"/>
-      <c r="O85" s="93"/>
-      <c r="P85" s="93"/>
-      <c r="Q85" s="93"/>
-      <c r="R85" s="93"/>
-      <c r="S85" s="93"/>
-      <c r="T85" s="93"/>
-      <c r="U85" s="93"/>
-      <c r="V85" s="93"/>
-      <c r="W85" s="93"/>
-      <c r="X85" s="93"/>
-      <c r="Y85" s="93"/>
-      <c r="Z85" s="93"/>
-      <c r="AA85" s="93"/>
-      <c r="AB85" s="93"/>
-      <c r="AC85" s="93"/>
-      <c r="AD85" s="93"/>
-      <c r="AE85" s="93"/>
-      <c r="AF85" s="93"/>
-      <c r="AG85" s="93"/>
-      <c r="AH85" s="93"/>
-      <c r="AI85" s="93"/>
-      <c r="AJ85" s="93"/>
-      <c r="AK85" s="93"/>
-      <c r="AL85" s="93"/>
-      <c r="AM85" s="93"/>
-      <c r="AN85" s="93"/>
-      <c r="AO85" s="93"/>
-      <c r="AP85" s="93"/>
-      <c r="AQ85" s="93"/>
-      <c r="AR85" s="93"/>
-      <c r="AS85" s="93"/>
-      <c r="AT85" s="93"/>
-      <c r="AU85" s="93"/>
-      <c r="AV85" s="93"/>
-      <c r="AW85" s="93"/>
-      <c r="AX85" s="93"/>
-      <c r="AY85" s="93"/>
-      <c r="AZ85" s="93"/>
-      <c r="BA85" s="93"/>
-      <c r="BB85" s="93"/>
-      <c r="BC85" s="93"/>
-      <c r="BD85" s="93"/>
-      <c r="BE85" s="93"/>
-      <c r="BF85" s="93"/>
-      <c r="BG85" s="93"/>
-      <c r="BH85" s="93"/>
-      <c r="BI85" s="93"/>
-      <c r="BJ85" s="93"/>
-      <c r="BK85" s="93"/>
-      <c r="BL85" s="93"/>
-      <c r="BM85" s="93"/>
-      <c r="BN85" s="93"/>
-      <c r="BO85" s="93"/>
-      <c r="BP85" s="93"/>
-      <c r="BQ85" s="93"/>
-      <c r="BR85" s="93"/>
-      <c r="BS85" s="93"/>
-      <c r="BT85" s="93"/>
+      <c r="A85" s="90"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="90"/>
+      <c r="D85" s="90"/>
+      <c r="E85" s="90"/>
+      <c r="F85" s="90"/>
+      <c r="G85" s="90"/>
+      <c r="H85" s="85"/>
+      <c r="I85" s="85"/>
+      <c r="J85" s="85"/>
+      <c r="K85" s="85"/>
+      <c r="L85" s="85"/>
+      <c r="M85" s="85"/>
+      <c r="N85" s="85"/>
+      <c r="O85" s="85"/>
+      <c r="P85" s="85"/>
+      <c r="Q85" s="85"/>
+      <c r="R85" s="85"/>
+      <c r="S85" s="85"/>
+      <c r="T85" s="85"/>
+      <c r="U85" s="85"/>
+      <c r="V85" s="85"/>
+      <c r="W85" s="85"/>
+      <c r="X85" s="85"/>
+      <c r="Y85" s="85"/>
+      <c r="Z85" s="85"/>
+      <c r="AA85" s="85"/>
+      <c r="AB85" s="85"/>
+      <c r="AC85" s="85"/>
+      <c r="AD85" s="85"/>
+      <c r="AE85" s="85"/>
+      <c r="AF85" s="85"/>
+      <c r="AG85" s="85"/>
+      <c r="AH85" s="85"/>
+      <c r="AI85" s="85"/>
+      <c r="AJ85" s="85"/>
+      <c r="AK85" s="85"/>
+      <c r="AL85" s="85"/>
+      <c r="AM85" s="85"/>
+      <c r="AN85" s="85"/>
+      <c r="AO85" s="85"/>
+      <c r="AP85" s="85"/>
+      <c r="AQ85" s="85"/>
+      <c r="AR85" s="85"/>
+      <c r="AS85" s="85"/>
+      <c r="AT85" s="85"/>
+      <c r="AU85" s="85"/>
+      <c r="AV85" s="85"/>
+      <c r="AW85" s="85"/>
+      <c r="AX85" s="85"/>
+      <c r="AY85" s="85"/>
+      <c r="AZ85" s="85"/>
+      <c r="BA85" s="85"/>
+      <c r="BB85" s="85"/>
+      <c r="BC85" s="85"/>
+      <c r="BD85" s="85"/>
+      <c r="BE85" s="85"/>
+      <c r="BF85" s="85"/>
+      <c r="BG85" s="85"/>
+      <c r="BH85" s="85"/>
+      <c r="BI85" s="85"/>
+      <c r="BJ85" s="85"/>
+      <c r="BK85" s="85"/>
+      <c r="BL85" s="85"/>
+      <c r="BM85" s="85"/>
+      <c r="BN85" s="85"/>
+      <c r="BO85" s="85"/>
+      <c r="BP85" s="85"/>
+      <c r="BQ85" s="85"/>
+      <c r="BR85" s="85"/>
+      <c r="BS85" s="85"/>
+      <c r="BT85" s="85"/>
       <c r="BU85"/>
     </row>
     <row r="86" spans="1:73" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="107" t="s">
+      <c r="A86" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="107"/>
-      <c r="C86" s="107"/>
-      <c r="D86" s="107"/>
-      <c r="E86" s="107"/>
-      <c r="F86" s="107"/>
-      <c r="G86" s="107"/>
-      <c r="H86" s="93"/>
-      <c r="I86" s="93"/>
-      <c r="J86" s="93"/>
-      <c r="K86" s="93"/>
-      <c r="L86" s="93"/>
-      <c r="M86" s="93"/>
-      <c r="N86" s="93"/>
-      <c r="O86" s="93"/>
-      <c r="P86" s="93"/>
-      <c r="Q86" s="93"/>
-      <c r="R86" s="93"/>
-      <c r="S86" s="93"/>
-      <c r="T86" s="93"/>
-      <c r="U86" s="93"/>
-      <c r="V86" s="93"/>
-      <c r="W86" s="93"/>
-      <c r="X86" s="93"/>
-      <c r="Y86" s="93"/>
-      <c r="Z86" s="93"/>
-      <c r="AA86" s="93"/>
-      <c r="AB86" s="93"/>
-      <c r="AC86" s="93"/>
-      <c r="AD86" s="93"/>
-      <c r="AE86" s="93"/>
-      <c r="AF86" s="93"/>
-      <c r="AG86" s="93"/>
-      <c r="AH86" s="93"/>
-      <c r="AI86" s="93"/>
-      <c r="AJ86" s="93"/>
-      <c r="AK86" s="93"/>
-      <c r="AL86" s="93"/>
-      <c r="AM86" s="93"/>
-      <c r="AN86" s="93"/>
-      <c r="AO86" s="93"/>
-      <c r="AP86" s="93"/>
-      <c r="AQ86" s="93"/>
-      <c r="AR86" s="93"/>
-      <c r="AS86" s="93"/>
-      <c r="AT86" s="93"/>
-      <c r="AU86" s="93"/>
-      <c r="AV86" s="93"/>
-      <c r="AW86" s="93"/>
-      <c r="AX86" s="93"/>
-      <c r="AY86" s="93"/>
-      <c r="AZ86" s="93"/>
-      <c r="BA86" s="93"/>
-      <c r="BB86" s="93"/>
-      <c r="BC86" s="93"/>
-      <c r="BD86" s="93"/>
-      <c r="BE86" s="93"/>
-      <c r="BF86" s="93"/>
-      <c r="BG86" s="93"/>
-      <c r="BH86" s="93"/>
-      <c r="BI86" s="93"/>
-      <c r="BJ86" s="93"/>
-      <c r="BK86" s="93"/>
-      <c r="BL86" s="93"/>
-      <c r="BM86" s="93"/>
-      <c r="BN86" s="93"/>
-      <c r="BO86" s="93"/>
-      <c r="BP86" s="93"/>
-      <c r="BQ86" s="93"/>
-      <c r="BR86" s="93"/>
-      <c r="BS86" s="93"/>
-      <c r="BT86" s="93"/>
+      <c r="B86" s="113"/>
+      <c r="C86" s="113"/>
+      <c r="D86" s="113"/>
+      <c r="E86" s="113"/>
+      <c r="F86" s="113"/>
+      <c r="G86" s="113"/>
+      <c r="H86" s="85"/>
+      <c r="I86" s="85"/>
+      <c r="J86" s="85"/>
+      <c r="K86" s="85"/>
+      <c r="L86" s="85"/>
+      <c r="M86" s="85"/>
+      <c r="N86" s="85"/>
+      <c r="O86" s="85"/>
+      <c r="P86" s="85"/>
+      <c r="Q86" s="85"/>
+      <c r="R86" s="85"/>
+      <c r="S86" s="85"/>
+      <c r="T86" s="85"/>
+      <c r="U86" s="85"/>
+      <c r="V86" s="85"/>
+      <c r="W86" s="85"/>
+      <c r="X86" s="85"/>
+      <c r="Y86" s="85"/>
+      <c r="Z86" s="85"/>
+      <c r="AA86" s="85"/>
+      <c r="AB86" s="85"/>
+      <c r="AC86" s="85"/>
+      <c r="AD86" s="85"/>
+      <c r="AE86" s="85"/>
+      <c r="AF86" s="85"/>
+      <c r="AG86" s="85"/>
+      <c r="AH86" s="85"/>
+      <c r="AI86" s="85"/>
+      <c r="AJ86" s="85"/>
+      <c r="AK86" s="85"/>
+      <c r="AL86" s="85"/>
+      <c r="AM86" s="85"/>
+      <c r="AN86" s="85"/>
+      <c r="AO86" s="85"/>
+      <c r="AP86" s="85"/>
+      <c r="AQ86" s="85"/>
+      <c r="AR86" s="85"/>
+      <c r="AS86" s="85"/>
+      <c r="AT86" s="85"/>
+      <c r="AU86" s="85"/>
+      <c r="AV86" s="85"/>
+      <c r="AW86" s="85"/>
+      <c r="AX86" s="85"/>
+      <c r="AY86" s="85"/>
+      <c r="AZ86" s="85"/>
+      <c r="BA86" s="85"/>
+      <c r="BB86" s="85"/>
+      <c r="BC86" s="85"/>
+      <c r="BD86" s="85"/>
+      <c r="BE86" s="85"/>
+      <c r="BF86" s="85"/>
+      <c r="BG86" s="85"/>
+      <c r="BH86" s="85"/>
+      <c r="BI86" s="85"/>
+      <c r="BJ86" s="85"/>
+      <c r="BK86" s="85"/>
+      <c r="BL86" s="85"/>
+      <c r="BM86" s="85"/>
+      <c r="BN86" s="85"/>
+      <c r="BO86" s="85"/>
+      <c r="BP86" s="85"/>
+      <c r="BQ86" s="85"/>
+      <c r="BR86" s="85"/>
+      <c r="BS86" s="85"/>
+      <c r="BT86" s="85"/>
       <c r="BU86"/>
     </row>
     <row r="87" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="107"/>
-      <c r="B87" s="107"/>
-      <c r="C87" s="107"/>
-      <c r="D87" s="107"/>
-      <c r="E87" s="107"/>
-      <c r="F87" s="107"/>
-      <c r="G87" s="107"/>
-      <c r="H87" s="93"/>
-      <c r="I87" s="93"/>
-      <c r="J87" s="93"/>
-      <c r="K87" s="93"/>
-      <c r="L87" s="93"/>
-      <c r="M87" s="93"/>
-      <c r="N87" s="93"/>
-      <c r="O87" s="93"/>
-      <c r="P87" s="93"/>
-      <c r="Q87" s="93"/>
-      <c r="R87" s="93"/>
-      <c r="S87" s="93"/>
-      <c r="T87" s="93"/>
-      <c r="U87" s="93"/>
-      <c r="V87" s="93"/>
-      <c r="W87" s="93"/>
-      <c r="X87" s="93"/>
-      <c r="Y87" s="93"/>
-      <c r="Z87" s="93"/>
-      <c r="AA87" s="93"/>
-      <c r="AB87" s="93"/>
-      <c r="AC87" s="93"/>
-      <c r="AD87" s="93"/>
-      <c r="AE87" s="93"/>
-      <c r="AF87" s="93"/>
-      <c r="AG87" s="93"/>
-      <c r="AH87" s="93"/>
-      <c r="AI87" s="93"/>
-      <c r="AJ87" s="93"/>
-      <c r="AK87" s="93"/>
-      <c r="AL87" s="93"/>
-      <c r="AM87" s="93"/>
-      <c r="AN87" s="93"/>
-      <c r="AO87" s="93"/>
-      <c r="AP87" s="93"/>
-      <c r="AQ87" s="93"/>
-      <c r="AR87" s="93"/>
-      <c r="AS87" s="93"/>
-      <c r="AT87" s="93"/>
-      <c r="AU87" s="93"/>
-      <c r="AV87" s="93"/>
-      <c r="AW87" s="93"/>
-      <c r="AX87" s="93"/>
-      <c r="AY87" s="93"/>
-      <c r="AZ87" s="93"/>
-      <c r="BA87" s="93"/>
-      <c r="BB87" s="93"/>
-      <c r="BC87" s="93"/>
-      <c r="BD87" s="93"/>
-      <c r="BE87" s="93"/>
-      <c r="BF87" s="93"/>
-      <c r="BG87" s="93"/>
-      <c r="BH87" s="93"/>
-      <c r="BI87" s="93"/>
-      <c r="BJ87" s="93"/>
-      <c r="BK87" s="93"/>
-      <c r="BL87" s="93"/>
-      <c r="BM87" s="93"/>
-      <c r="BN87" s="93"/>
-      <c r="BO87" s="93"/>
-      <c r="BP87" s="93"/>
-      <c r="BQ87" s="93"/>
-      <c r="BR87" s="93"/>
-      <c r="BS87" s="93"/>
-      <c r="BT87" s="93"/>
+      <c r="A87" s="113"/>
+      <c r="B87" s="113"/>
+      <c r="C87" s="113"/>
+      <c r="D87" s="113"/>
+      <c r="E87" s="113"/>
+      <c r="F87" s="113"/>
+      <c r="G87" s="113"/>
+      <c r="H87" s="85"/>
+      <c r="I87" s="85"/>
+      <c r="J87" s="85"/>
+      <c r="K87" s="85"/>
+      <c r="L87" s="85"/>
+      <c r="M87" s="85"/>
+      <c r="N87" s="85"/>
+      <c r="O87" s="85"/>
+      <c r="P87" s="85"/>
+      <c r="Q87" s="85"/>
+      <c r="R87" s="85"/>
+      <c r="S87" s="85"/>
+      <c r="T87" s="85"/>
+      <c r="U87" s="85"/>
+      <c r="V87" s="85"/>
+      <c r="W87" s="85"/>
+      <c r="X87" s="85"/>
+      <c r="Y87" s="85"/>
+      <c r="Z87" s="85"/>
+      <c r="AA87" s="85"/>
+      <c r="AB87" s="85"/>
+      <c r="AC87" s="85"/>
+      <c r="AD87" s="85"/>
+      <c r="AE87" s="85"/>
+      <c r="AF87" s="85"/>
+      <c r="AG87" s="85"/>
+      <c r="AH87" s="85"/>
+      <c r="AI87" s="85"/>
+      <c r="AJ87" s="85"/>
+      <c r="AK87" s="85"/>
+      <c r="AL87" s="85"/>
+      <c r="AM87" s="85"/>
+      <c r="AN87" s="85"/>
+      <c r="AO87" s="85"/>
+      <c r="AP87" s="85"/>
+      <c r="AQ87" s="85"/>
+      <c r="AR87" s="85"/>
+      <c r="AS87" s="85"/>
+      <c r="AT87" s="85"/>
+      <c r="AU87" s="85"/>
+      <c r="AV87" s="85"/>
+      <c r="AW87" s="85"/>
+      <c r="AX87" s="85"/>
+      <c r="AY87" s="85"/>
+      <c r="AZ87" s="85"/>
+      <c r="BA87" s="85"/>
+      <c r="BB87" s="85"/>
+      <c r="BC87" s="85"/>
+      <c r="BD87" s="85"/>
+      <c r="BE87" s="85"/>
+      <c r="BF87" s="85"/>
+      <c r="BG87" s="85"/>
+      <c r="BH87" s="85"/>
+      <c r="BI87" s="85"/>
+      <c r="BJ87" s="85"/>
+      <c r="BK87" s="85"/>
+      <c r="BL87" s="85"/>
+      <c r="BM87" s="85"/>
+      <c r="BN87" s="85"/>
+      <c r="BO87" s="85"/>
+      <c r="BP87" s="85"/>
+      <c r="BQ87" s="85"/>
+      <c r="BR87" s="85"/>
+      <c r="BS87" s="85"/>
+      <c r="BT87" s="85"/>
       <c r="BU87"/>
     </row>
     <row r="88" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="27"/>
-      <c r="B88" s="103" t="s">
+      <c r="B88" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="103"/>
-      <c r="D88" s="109"/>
-      <c r="E88" s="93"/>
-      <c r="F88" s="93"/>
-      <c r="G88" s="93"/>
-      <c r="H88" s="93"/>
-      <c r="I88" s="93"/>
-      <c r="J88" s="93"/>
-      <c r="K88" s="93"/>
-      <c r="L88" s="93"/>
-      <c r="M88" s="93"/>
-      <c r="N88" s="93"/>
-      <c r="O88" s="93"/>
-      <c r="P88" s="93"/>
-      <c r="Q88" s="93"/>
-      <c r="R88" s="93"/>
-      <c r="S88" s="93"/>
-      <c r="T88" s="93"/>
-      <c r="U88" s="93"/>
-      <c r="V88" s="93"/>
-      <c r="W88" s="93"/>
-      <c r="X88" s="93"/>
-      <c r="Y88" s="93"/>
-      <c r="Z88" s="93"/>
-      <c r="AA88" s="93"/>
-      <c r="AB88" s="93"/>
-      <c r="AC88" s="93"/>
-      <c r="AD88" s="93"/>
-      <c r="AE88" s="93"/>
-      <c r="AF88" s="93"/>
-      <c r="AG88" s="93"/>
-      <c r="AH88" s="93"/>
-      <c r="AI88" s="93"/>
-      <c r="AJ88" s="93"/>
-      <c r="AK88" s="93"/>
-      <c r="AL88" s="93"/>
-      <c r="AM88" s="93"/>
-      <c r="AN88" s="93"/>
-      <c r="AO88" s="93"/>
-      <c r="AP88" s="93"/>
-      <c r="AQ88" s="93"/>
-      <c r="AR88" s="93"/>
-      <c r="AS88" s="93"/>
-      <c r="AT88" s="93"/>
-      <c r="AU88" s="93"/>
-      <c r="AV88" s="93"/>
-      <c r="AW88" s="93"/>
-      <c r="AX88" s="93"/>
-      <c r="AY88" s="93"/>
-      <c r="AZ88" s="93"/>
-      <c r="BA88" s="93"/>
-      <c r="BB88" s="93"/>
-      <c r="BC88" s="93"/>
-      <c r="BD88" s="93"/>
-      <c r="BE88" s="93"/>
-      <c r="BF88" s="93"/>
-      <c r="BG88" s="93"/>
-      <c r="BH88" s="93"/>
-      <c r="BI88" s="93"/>
-      <c r="BJ88" s="93"/>
-      <c r="BK88" s="93"/>
-      <c r="BL88" s="93"/>
-      <c r="BM88" s="93"/>
-      <c r="BN88" s="93"/>
-      <c r="BO88" s="93"/>
-      <c r="BP88" s="93"/>
-      <c r="BQ88" s="93"/>
-      <c r="BR88" s="93"/>
-      <c r="BS88" s="93"/>
-      <c r="BT88" s="93"/>
+      <c r="C88" s="89"/>
+      <c r="D88" s="110"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="85"/>
+      <c r="L88" s="85"/>
+      <c r="M88" s="85"/>
+      <c r="N88" s="85"/>
+      <c r="O88" s="85"/>
+      <c r="P88" s="85"/>
+      <c r="Q88" s="85"/>
+      <c r="R88" s="85"/>
+      <c r="S88" s="85"/>
+      <c r="T88" s="85"/>
+      <c r="U88" s="85"/>
+      <c r="V88" s="85"/>
+      <c r="W88" s="85"/>
+      <c r="X88" s="85"/>
+      <c r="Y88" s="85"/>
+      <c r="Z88" s="85"/>
+      <c r="AA88" s="85"/>
+      <c r="AB88" s="85"/>
+      <c r="AC88" s="85"/>
+      <c r="AD88" s="85"/>
+      <c r="AE88" s="85"/>
+      <c r="AF88" s="85"/>
+      <c r="AG88" s="85"/>
+      <c r="AH88" s="85"/>
+      <c r="AI88" s="85"/>
+      <c r="AJ88" s="85"/>
+      <c r="AK88" s="85"/>
+      <c r="AL88" s="85"/>
+      <c r="AM88" s="85"/>
+      <c r="AN88" s="85"/>
+      <c r="AO88" s="85"/>
+      <c r="AP88" s="85"/>
+      <c r="AQ88" s="85"/>
+      <c r="AR88" s="85"/>
+      <c r="AS88" s="85"/>
+      <c r="AT88" s="85"/>
+      <c r="AU88" s="85"/>
+      <c r="AV88" s="85"/>
+      <c r="AW88" s="85"/>
+      <c r="AX88" s="85"/>
+      <c r="AY88" s="85"/>
+      <c r="AZ88" s="85"/>
+      <c r="BA88" s="85"/>
+      <c r="BB88" s="85"/>
+      <c r="BC88" s="85"/>
+      <c r="BD88" s="85"/>
+      <c r="BE88" s="85"/>
+      <c r="BF88" s="85"/>
+      <c r="BG88" s="85"/>
+      <c r="BH88" s="85"/>
+      <c r="BI88" s="85"/>
+      <c r="BJ88" s="85"/>
+      <c r="BK88" s="85"/>
+      <c r="BL88" s="85"/>
+      <c r="BM88" s="85"/>
+      <c r="BN88" s="85"/>
+      <c r="BO88" s="85"/>
+      <c r="BP88" s="85"/>
+      <c r="BQ88" s="85"/>
+      <c r="BR88" s="85"/>
+      <c r="BS88" s="85"/>
+      <c r="BT88" s="85"/>
       <c r="BU88"/>
     </row>
     <row r="89" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
-      <c r="B89" s="103"/>
-      <c r="C89" s="103"/>
-      <c r="D89" s="109"/>
-      <c r="E89" s="93"/>
-      <c r="F89" s="93"/>
-      <c r="G89" s="93"/>
-      <c r="H89" s="93"/>
-      <c r="I89" s="93"/>
-      <c r="J89" s="93"/>
-      <c r="K89" s="93"/>
-      <c r="L89" s="93"/>
-      <c r="M89" s="93"/>
-      <c r="N89" s="93"/>
-      <c r="O89" s="93"/>
-      <c r="P89" s="93"/>
-      <c r="Q89" s="93"/>
-      <c r="R89" s="93"/>
-      <c r="S89" s="93"/>
-      <c r="T89" s="93"/>
-      <c r="U89" s="93"/>
-      <c r="V89" s="93"/>
-      <c r="W89" s="93"/>
-      <c r="X89" s="93"/>
-      <c r="Y89" s="93"/>
-      <c r="Z89" s="93"/>
-      <c r="AA89" s="93"/>
-      <c r="AB89" s="93"/>
-      <c r="AC89" s="93"/>
-      <c r="AD89" s="93"/>
-      <c r="AE89" s="93"/>
-      <c r="AF89" s="93"/>
-      <c r="AG89" s="93"/>
-      <c r="AH89" s="93"/>
-      <c r="AI89" s="93"/>
-      <c r="AJ89" s="93"/>
-      <c r="AK89" s="93"/>
-      <c r="AL89" s="93"/>
-      <c r="AM89" s="93"/>
-      <c r="AN89" s="93"/>
-      <c r="AO89" s="93"/>
-      <c r="AP89" s="93"/>
-      <c r="AQ89" s="93"/>
-      <c r="AR89" s="93"/>
-      <c r="AS89" s="93"/>
-      <c r="AT89" s="93"/>
-      <c r="AU89" s="93"/>
-      <c r="AV89" s="93"/>
-      <c r="AW89" s="93"/>
-      <c r="AX89" s="93"/>
-      <c r="AY89" s="93"/>
-      <c r="AZ89" s="93"/>
-      <c r="BA89" s="93"/>
-      <c r="BB89" s="93"/>
-      <c r="BC89" s="93"/>
-      <c r="BD89" s="93"/>
-      <c r="BE89" s="93"/>
-      <c r="BF89" s="93"/>
-      <c r="BG89" s="93"/>
-      <c r="BH89" s="93"/>
-      <c r="BI89" s="93"/>
-      <c r="BJ89" s="93"/>
-      <c r="BK89" s="93"/>
-      <c r="BL89" s="93"/>
-      <c r="BM89" s="93"/>
-      <c r="BN89" s="93"/>
-      <c r="BO89" s="93"/>
-      <c r="BP89" s="93"/>
-      <c r="BQ89" s="93"/>
-      <c r="BR89" s="93"/>
-      <c r="BS89" s="93"/>
-      <c r="BT89" s="93"/>
+      <c r="B89" s="89"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="110"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="85"/>
+      <c r="M89" s="85"/>
+      <c r="N89" s="85"/>
+      <c r="O89" s="85"/>
+      <c r="P89" s="85"/>
+      <c r="Q89" s="85"/>
+      <c r="R89" s="85"/>
+      <c r="S89" s="85"/>
+      <c r="T89" s="85"/>
+      <c r="U89" s="85"/>
+      <c r="V89" s="85"/>
+      <c r="W89" s="85"/>
+      <c r="X89" s="85"/>
+      <c r="Y89" s="85"/>
+      <c r="Z89" s="85"/>
+      <c r="AA89" s="85"/>
+      <c r="AB89" s="85"/>
+      <c r="AC89" s="85"/>
+      <c r="AD89" s="85"/>
+      <c r="AE89" s="85"/>
+      <c r="AF89" s="85"/>
+      <c r="AG89" s="85"/>
+      <c r="AH89" s="85"/>
+      <c r="AI89" s="85"/>
+      <c r="AJ89" s="85"/>
+      <c r="AK89" s="85"/>
+      <c r="AL89" s="85"/>
+      <c r="AM89" s="85"/>
+      <c r="AN89" s="85"/>
+      <c r="AO89" s="85"/>
+      <c r="AP89" s="85"/>
+      <c r="AQ89" s="85"/>
+      <c r="AR89" s="85"/>
+      <c r="AS89" s="85"/>
+      <c r="AT89" s="85"/>
+      <c r="AU89" s="85"/>
+      <c r="AV89" s="85"/>
+      <c r="AW89" s="85"/>
+      <c r="AX89" s="85"/>
+      <c r="AY89" s="85"/>
+      <c r="AZ89" s="85"/>
+      <c r="BA89" s="85"/>
+      <c r="BB89" s="85"/>
+      <c r="BC89" s="85"/>
+      <c r="BD89" s="85"/>
+      <c r="BE89" s="85"/>
+      <c r="BF89" s="85"/>
+      <c r="BG89" s="85"/>
+      <c r="BH89" s="85"/>
+      <c r="BI89" s="85"/>
+      <c r="BJ89" s="85"/>
+      <c r="BK89" s="85"/>
+      <c r="BL89" s="85"/>
+      <c r="BM89" s="85"/>
+      <c r="BN89" s="85"/>
+      <c r="BO89" s="85"/>
+      <c r="BP89" s="85"/>
+      <c r="BQ89" s="85"/>
+      <c r="BR89" s="85"/>
+      <c r="BS89" s="85"/>
+      <c r="BT89" s="85"/>
       <c r="BU89"/>
     </row>
     <row r="90" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
-      <c r="B90" s="103" t="s">
+      <c r="B90" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="103"/>
-      <c r="D90" s="106"/>
-      <c r="E90" s="93"/>
-      <c r="F90" s="93"/>
-      <c r="G90" s="93"/>
-      <c r="H90" s="93"/>
-      <c r="I90" s="93"/>
-      <c r="J90" s="93"/>
-      <c r="K90" s="93"/>
-      <c r="L90" s="93"/>
-      <c r="M90" s="93"/>
-      <c r="N90" s="93"/>
-      <c r="O90" s="93"/>
-      <c r="P90" s="93"/>
-      <c r="Q90" s="93"/>
-      <c r="R90" s="93"/>
-      <c r="S90" s="93"/>
-      <c r="T90" s="93"/>
-      <c r="U90" s="93"/>
-      <c r="V90" s="93"/>
-      <c r="W90" s="93"/>
-      <c r="X90" s="93"/>
-      <c r="Y90" s="93"/>
-      <c r="Z90" s="93"/>
-      <c r="AA90" s="93"/>
-      <c r="AB90" s="93"/>
-      <c r="AC90" s="93"/>
-      <c r="AD90" s="93"/>
-      <c r="AE90" s="93"/>
-      <c r="AF90" s="93"/>
-      <c r="AG90" s="93"/>
-      <c r="AH90" s="93"/>
-      <c r="AI90" s="93"/>
-      <c r="AJ90" s="93"/>
-      <c r="AK90" s="93"/>
-      <c r="AL90" s="93"/>
-      <c r="AM90" s="93"/>
-      <c r="AN90" s="93"/>
-      <c r="AO90" s="93"/>
-      <c r="AP90" s="93"/>
-      <c r="AQ90" s="93"/>
-      <c r="AR90" s="93"/>
-      <c r="AS90" s="93"/>
-      <c r="AT90" s="93"/>
-      <c r="AU90" s="93"/>
-      <c r="AV90" s="93"/>
-      <c r="AW90" s="93"/>
-      <c r="AX90" s="93"/>
-      <c r="AY90" s="93"/>
-      <c r="AZ90" s="93"/>
-      <c r="BA90" s="93"/>
-      <c r="BB90" s="93"/>
-      <c r="BC90" s="93"/>
-      <c r="BD90" s="93"/>
-      <c r="BE90" s="93"/>
-      <c r="BF90" s="93"/>
-      <c r="BG90" s="93"/>
-      <c r="BH90" s="93"/>
-      <c r="BI90" s="93"/>
-      <c r="BJ90" s="93"/>
-      <c r="BK90" s="93"/>
-      <c r="BL90" s="93"/>
-      <c r="BM90" s="93"/>
-      <c r="BN90" s="93"/>
-      <c r="BO90" s="93"/>
-      <c r="BP90" s="93"/>
-      <c r="BQ90" s="93"/>
-      <c r="BR90" s="93"/>
-      <c r="BS90" s="93"/>
-      <c r="BT90" s="93"/>
+      <c r="C90" s="89"/>
+      <c r="D90" s="112"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="85"/>
+      <c r="I90" s="85"/>
+      <c r="J90" s="85"/>
+      <c r="K90" s="85"/>
+      <c r="L90" s="85"/>
+      <c r="M90" s="85"/>
+      <c r="N90" s="85"/>
+      <c r="O90" s="85"/>
+      <c r="P90" s="85"/>
+      <c r="Q90" s="85"/>
+      <c r="R90" s="85"/>
+      <c r="S90" s="85"/>
+      <c r="T90" s="85"/>
+      <c r="U90" s="85"/>
+      <c r="V90" s="85"/>
+      <c r="W90" s="85"/>
+      <c r="X90" s="85"/>
+      <c r="Y90" s="85"/>
+      <c r="Z90" s="85"/>
+      <c r="AA90" s="85"/>
+      <c r="AB90" s="85"/>
+      <c r="AC90" s="85"/>
+      <c r="AD90" s="85"/>
+      <c r="AE90" s="85"/>
+      <c r="AF90" s="85"/>
+      <c r="AG90" s="85"/>
+      <c r="AH90" s="85"/>
+      <c r="AI90" s="85"/>
+      <c r="AJ90" s="85"/>
+      <c r="AK90" s="85"/>
+      <c r="AL90" s="85"/>
+      <c r="AM90" s="85"/>
+      <c r="AN90" s="85"/>
+      <c r="AO90" s="85"/>
+      <c r="AP90" s="85"/>
+      <c r="AQ90" s="85"/>
+      <c r="AR90" s="85"/>
+      <c r="AS90" s="85"/>
+      <c r="AT90" s="85"/>
+      <c r="AU90" s="85"/>
+      <c r="AV90" s="85"/>
+      <c r="AW90" s="85"/>
+      <c r="AX90" s="85"/>
+      <c r="AY90" s="85"/>
+      <c r="AZ90" s="85"/>
+      <c r="BA90" s="85"/>
+      <c r="BB90" s="85"/>
+      <c r="BC90" s="85"/>
+      <c r="BD90" s="85"/>
+      <c r="BE90" s="85"/>
+      <c r="BF90" s="85"/>
+      <c r="BG90" s="85"/>
+      <c r="BH90" s="85"/>
+      <c r="BI90" s="85"/>
+      <c r="BJ90" s="85"/>
+      <c r="BK90" s="85"/>
+      <c r="BL90" s="85"/>
+      <c r="BM90" s="85"/>
+      <c r="BN90" s="85"/>
+      <c r="BO90" s="85"/>
+      <c r="BP90" s="85"/>
+      <c r="BQ90" s="85"/>
+      <c r="BR90" s="85"/>
+      <c r="BS90" s="85"/>
+      <c r="BT90" s="85"/>
       <c r="BU90"/>
     </row>
     <row r="91" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
-      <c r="B91" s="103"/>
-      <c r="C91" s="103"/>
-      <c r="D91" s="106"/>
-      <c r="E91" s="93"/>
-      <c r="F91" s="93"/>
-      <c r="G91" s="93"/>
-      <c r="H91" s="93"/>
-      <c r="I91" s="93"/>
-      <c r="J91" s="93"/>
-      <c r="K91" s="93"/>
-      <c r="L91" s="93"/>
-      <c r="M91" s="93"/>
-      <c r="N91" s="93"/>
-      <c r="O91" s="93"/>
-      <c r="P91" s="93"/>
-      <c r="Q91" s="93"/>
-      <c r="R91" s="93"/>
-      <c r="S91" s="93"/>
-      <c r="T91" s="93"/>
-      <c r="U91" s="93"/>
-      <c r="V91" s="93"/>
-      <c r="W91" s="93"/>
-      <c r="X91" s="93"/>
-      <c r="Y91" s="93"/>
-      <c r="Z91" s="93"/>
-      <c r="AA91" s="93"/>
-      <c r="AB91" s="93"/>
-      <c r="AC91" s="93"/>
-      <c r="AD91" s="93"/>
-      <c r="AE91" s="93"/>
-      <c r="AF91" s="93"/>
-      <c r="AG91" s="93"/>
-      <c r="AH91" s="93"/>
-      <c r="AI91" s="93"/>
-      <c r="AJ91" s="93"/>
-      <c r="AK91" s="93"/>
-      <c r="AL91" s="93"/>
-      <c r="AM91" s="93"/>
-      <c r="AN91" s="93"/>
-      <c r="AO91" s="93"/>
-      <c r="AP91" s="93"/>
-      <c r="AQ91" s="93"/>
-      <c r="AR91" s="93"/>
-      <c r="AS91" s="93"/>
-      <c r="AT91" s="93"/>
-      <c r="AU91" s="93"/>
-      <c r="AV91" s="93"/>
-      <c r="AW91" s="93"/>
-      <c r="AX91" s="93"/>
-      <c r="AY91" s="93"/>
-      <c r="AZ91" s="93"/>
-      <c r="BA91" s="93"/>
-      <c r="BB91" s="93"/>
-      <c r="BC91" s="93"/>
-      <c r="BD91" s="93"/>
-      <c r="BE91" s="93"/>
-      <c r="BF91" s="93"/>
-      <c r="BG91" s="93"/>
-      <c r="BH91" s="93"/>
-      <c r="BI91" s="93"/>
-      <c r="BJ91" s="93"/>
-      <c r="BK91" s="93"/>
-      <c r="BL91" s="93"/>
-      <c r="BM91" s="93"/>
-      <c r="BN91" s="93"/>
-      <c r="BO91" s="93"/>
-      <c r="BP91" s="93"/>
-      <c r="BQ91" s="93"/>
-      <c r="BR91" s="93"/>
-      <c r="BS91" s="93"/>
-      <c r="BT91" s="93"/>
+      <c r="B91" s="89"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="112"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="85"/>
+      <c r="I91" s="85"/>
+      <c r="J91" s="85"/>
+      <c r="K91" s="85"/>
+      <c r="L91" s="85"/>
+      <c r="M91" s="85"/>
+      <c r="N91" s="85"/>
+      <c r="O91" s="85"/>
+      <c r="P91" s="85"/>
+      <c r="Q91" s="85"/>
+      <c r="R91" s="85"/>
+      <c r="S91" s="85"/>
+      <c r="T91" s="85"/>
+      <c r="U91" s="85"/>
+      <c r="V91" s="85"/>
+      <c r="W91" s="85"/>
+      <c r="X91" s="85"/>
+      <c r="Y91" s="85"/>
+      <c r="Z91" s="85"/>
+      <c r="AA91" s="85"/>
+      <c r="AB91" s="85"/>
+      <c r="AC91" s="85"/>
+      <c r="AD91" s="85"/>
+      <c r="AE91" s="85"/>
+      <c r="AF91" s="85"/>
+      <c r="AG91" s="85"/>
+      <c r="AH91" s="85"/>
+      <c r="AI91" s="85"/>
+      <c r="AJ91" s="85"/>
+      <c r="AK91" s="85"/>
+      <c r="AL91" s="85"/>
+      <c r="AM91" s="85"/>
+      <c r="AN91" s="85"/>
+      <c r="AO91" s="85"/>
+      <c r="AP91" s="85"/>
+      <c r="AQ91" s="85"/>
+      <c r="AR91" s="85"/>
+      <c r="AS91" s="85"/>
+      <c r="AT91" s="85"/>
+      <c r="AU91" s="85"/>
+      <c r="AV91" s="85"/>
+      <c r="AW91" s="85"/>
+      <c r="AX91" s="85"/>
+      <c r="AY91" s="85"/>
+      <c r="AZ91" s="85"/>
+      <c r="BA91" s="85"/>
+      <c r="BB91" s="85"/>
+      <c r="BC91" s="85"/>
+      <c r="BD91" s="85"/>
+      <c r="BE91" s="85"/>
+      <c r="BF91" s="85"/>
+      <c r="BG91" s="85"/>
+      <c r="BH91" s="85"/>
+      <c r="BI91" s="85"/>
+      <c r="BJ91" s="85"/>
+      <c r="BK91" s="85"/>
+      <c r="BL91" s="85"/>
+      <c r="BM91" s="85"/>
+      <c r="BN91" s="85"/>
+      <c r="BO91" s="85"/>
+      <c r="BP91" s="85"/>
+      <c r="BQ91" s="85"/>
+      <c r="BR91" s="85"/>
+      <c r="BS91" s="85"/>
+      <c r="BT91" s="85"/>
       <c r="BU91"/>
     </row>
     <row r="92" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
-      <c r="B92" s="103" t="s">
+      <c r="B92" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C92" s="103"/>
-      <c r="D92" s="108"/>
-      <c r="E92" s="100"/>
-      <c r="F92" s="93"/>
-      <c r="G92" s="93"/>
-      <c r="H92" s="93"/>
-      <c r="I92" s="93"/>
-      <c r="J92" s="93"/>
-      <c r="K92" s="93"/>
-      <c r="L92" s="93"/>
-      <c r="M92" s="93"/>
-      <c r="N92" s="93"/>
-      <c r="O92" s="93"/>
-      <c r="P92" s="93"/>
-      <c r="Q92" s="93"/>
-      <c r="R92" s="93"/>
-      <c r="S92" s="93"/>
-      <c r="T92" s="93"/>
-      <c r="U92" s="93"/>
-      <c r="V92" s="93"/>
-      <c r="W92" s="93"/>
-      <c r="X92" s="93"/>
-      <c r="Y92" s="93"/>
-      <c r="Z92" s="93"/>
-      <c r="AA92" s="93"/>
-      <c r="AB92" s="93"/>
-      <c r="AC92" s="93"/>
-      <c r="AD92" s="93"/>
-      <c r="AE92" s="93"/>
-      <c r="AF92" s="93"/>
-      <c r="AG92" s="93"/>
-      <c r="AH92" s="93"/>
-      <c r="AI92" s="93"/>
-      <c r="AJ92" s="93"/>
-      <c r="AK92" s="93"/>
-      <c r="AL92" s="93"/>
-      <c r="AM92" s="93"/>
-      <c r="AN92" s="93"/>
-      <c r="AO92" s="93"/>
-      <c r="AP92" s="93"/>
-      <c r="AQ92" s="93"/>
-      <c r="AR92" s="93"/>
-      <c r="AS92" s="93"/>
-      <c r="AT92" s="93"/>
-      <c r="AU92" s="93"/>
-      <c r="AV92" s="93"/>
-      <c r="AW92" s="93"/>
-      <c r="AX92" s="93"/>
-      <c r="AY92" s="93"/>
-      <c r="AZ92" s="93"/>
-      <c r="BA92" s="93"/>
-      <c r="BB92" s="93"/>
-      <c r="BC92" s="93"/>
-      <c r="BD92" s="93"/>
-      <c r="BE92" s="93"/>
-      <c r="BF92" s="93"/>
-      <c r="BG92" s="93"/>
-      <c r="BH92" s="93"/>
-      <c r="BI92" s="93"/>
-      <c r="BJ92" s="93"/>
-      <c r="BK92" s="93"/>
-      <c r="BL92" s="93"/>
-      <c r="BM92" s="93"/>
-      <c r="BN92" s="93"/>
-      <c r="BO92" s="93"/>
-      <c r="BP92" s="93"/>
-      <c r="BQ92" s="93"/>
-      <c r="BR92" s="93"/>
-      <c r="BS92" s="93"/>
-      <c r="BT92" s="93"/>
+      <c r="C92" s="89"/>
+      <c r="D92" s="114"/>
+      <c r="E92" s="90"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="85"/>
+      <c r="L92" s="85"/>
+      <c r="M92" s="85"/>
+      <c r="N92" s="85"/>
+      <c r="O92" s="85"/>
+      <c r="P92" s="85"/>
+      <c r="Q92" s="85"/>
+      <c r="R92" s="85"/>
+      <c r="S92" s="85"/>
+      <c r="T92" s="85"/>
+      <c r="U92" s="85"/>
+      <c r="V92" s="85"/>
+      <c r="W92" s="85"/>
+      <c r="X92" s="85"/>
+      <c r="Y92" s="85"/>
+      <c r="Z92" s="85"/>
+      <c r="AA92" s="85"/>
+      <c r="AB92" s="85"/>
+      <c r="AC92" s="85"/>
+      <c r="AD92" s="85"/>
+      <c r="AE92" s="85"/>
+      <c r="AF92" s="85"/>
+      <c r="AG92" s="85"/>
+      <c r="AH92" s="85"/>
+      <c r="AI92" s="85"/>
+      <c r="AJ92" s="85"/>
+      <c r="AK92" s="85"/>
+      <c r="AL92" s="85"/>
+      <c r="AM92" s="85"/>
+      <c r="AN92" s="85"/>
+      <c r="AO92" s="85"/>
+      <c r="AP92" s="85"/>
+      <c r="AQ92" s="85"/>
+      <c r="AR92" s="85"/>
+      <c r="AS92" s="85"/>
+      <c r="AT92" s="85"/>
+      <c r="AU92" s="85"/>
+      <c r="AV92" s="85"/>
+      <c r="AW92" s="85"/>
+      <c r="AX92" s="85"/>
+      <c r="AY92" s="85"/>
+      <c r="AZ92" s="85"/>
+      <c r="BA92" s="85"/>
+      <c r="BB92" s="85"/>
+      <c r="BC92" s="85"/>
+      <c r="BD92" s="85"/>
+      <c r="BE92" s="85"/>
+      <c r="BF92" s="85"/>
+      <c r="BG92" s="85"/>
+      <c r="BH92" s="85"/>
+      <c r="BI92" s="85"/>
+      <c r="BJ92" s="85"/>
+      <c r="BK92" s="85"/>
+      <c r="BL92" s="85"/>
+      <c r="BM92" s="85"/>
+      <c r="BN92" s="85"/>
+      <c r="BO92" s="85"/>
+      <c r="BP92" s="85"/>
+      <c r="BQ92" s="85"/>
+      <c r="BR92" s="85"/>
+      <c r="BS92" s="85"/>
+      <c r="BT92" s="85"/>
       <c r="BU92"/>
     </row>
     <row r="93" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
-      <c r="B93" s="103"/>
-      <c r="C93" s="103"/>
-      <c r="D93" s="108"/>
-      <c r="E93" s="100"/>
-      <c r="F93" s="93"/>
-      <c r="G93" s="93"/>
-      <c r="H93" s="93"/>
-      <c r="I93" s="93"/>
-      <c r="J93" s="93"/>
-      <c r="K93" s="93"/>
-      <c r="L93" s="93"/>
-      <c r="M93" s="93"/>
-      <c r="N93" s="93"/>
-      <c r="O93" s="93"/>
-      <c r="P93" s="93"/>
-      <c r="Q93" s="93"/>
-      <c r="R93" s="93"/>
-      <c r="S93" s="93"/>
-      <c r="T93" s="93"/>
-      <c r="U93" s="93"/>
-      <c r="V93" s="93"/>
-      <c r="W93" s="93"/>
-      <c r="X93" s="93"/>
-      <c r="Y93" s="93"/>
-      <c r="Z93" s="93"/>
-      <c r="AA93" s="93"/>
-      <c r="AB93" s="93"/>
-      <c r="AC93" s="93"/>
-      <c r="AD93" s="93"/>
-      <c r="AE93" s="93"/>
-      <c r="AF93" s="93"/>
-      <c r="AG93" s="93"/>
-      <c r="AH93" s="93"/>
-      <c r="AI93" s="93"/>
-      <c r="AJ93" s="93"/>
-      <c r="AK93" s="93"/>
-      <c r="AL93" s="93"/>
-      <c r="AM93" s="93"/>
-      <c r="AN93" s="93"/>
-      <c r="AO93" s="93"/>
-      <c r="AP93" s="93"/>
-      <c r="AQ93" s="93"/>
-      <c r="AR93" s="93"/>
-      <c r="AS93" s="93"/>
-      <c r="AT93" s="93"/>
-      <c r="AU93" s="93"/>
-      <c r="AV93" s="93"/>
-      <c r="AW93" s="93"/>
-      <c r="AX93" s="93"/>
-      <c r="AY93" s="93"/>
-      <c r="AZ93" s="93"/>
-      <c r="BA93" s="93"/>
-      <c r="BB93" s="93"/>
-      <c r="BC93" s="93"/>
-      <c r="BD93" s="93"/>
-      <c r="BE93" s="93"/>
-      <c r="BF93" s="93"/>
-      <c r="BG93" s="93"/>
-      <c r="BH93" s="93"/>
-      <c r="BI93" s="93"/>
-      <c r="BJ93" s="93"/>
-      <c r="BK93" s="93"/>
-      <c r="BL93" s="93"/>
-      <c r="BM93" s="93"/>
-      <c r="BN93" s="93"/>
-      <c r="BO93" s="93"/>
-      <c r="BP93" s="93"/>
-      <c r="BQ93" s="93"/>
-      <c r="BR93" s="93"/>
-      <c r="BS93" s="93"/>
-      <c r="BT93" s="93"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="114"/>
+      <c r="E93" s="90"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
+      <c r="I93" s="85"/>
+      <c r="J93" s="85"/>
+      <c r="K93" s="85"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="85"/>
+      <c r="N93" s="85"/>
+      <c r="O93" s="85"/>
+      <c r="P93" s="85"/>
+      <c r="Q93" s="85"/>
+      <c r="R93" s="85"/>
+      <c r="S93" s="85"/>
+      <c r="T93" s="85"/>
+      <c r="U93" s="85"/>
+      <c r="V93" s="85"/>
+      <c r="W93" s="85"/>
+      <c r="X93" s="85"/>
+      <c r="Y93" s="85"/>
+      <c r="Z93" s="85"/>
+      <c r="AA93" s="85"/>
+      <c r="AB93" s="85"/>
+      <c r="AC93" s="85"/>
+      <c r="AD93" s="85"/>
+      <c r="AE93" s="85"/>
+      <c r="AF93" s="85"/>
+      <c r="AG93" s="85"/>
+      <c r="AH93" s="85"/>
+      <c r="AI93" s="85"/>
+      <c r="AJ93" s="85"/>
+      <c r="AK93" s="85"/>
+      <c r="AL93" s="85"/>
+      <c r="AM93" s="85"/>
+      <c r="AN93" s="85"/>
+      <c r="AO93" s="85"/>
+      <c r="AP93" s="85"/>
+      <c r="AQ93" s="85"/>
+      <c r="AR93" s="85"/>
+      <c r="AS93" s="85"/>
+      <c r="AT93" s="85"/>
+      <c r="AU93" s="85"/>
+      <c r="AV93" s="85"/>
+      <c r="AW93" s="85"/>
+      <c r="AX93" s="85"/>
+      <c r="AY93" s="85"/>
+      <c r="AZ93" s="85"/>
+      <c r="BA93" s="85"/>
+      <c r="BB93" s="85"/>
+      <c r="BC93" s="85"/>
+      <c r="BD93" s="85"/>
+      <c r="BE93" s="85"/>
+      <c r="BF93" s="85"/>
+      <c r="BG93" s="85"/>
+      <c r="BH93" s="85"/>
+      <c r="BI93" s="85"/>
+      <c r="BJ93" s="85"/>
+      <c r="BK93" s="85"/>
+      <c r="BL93" s="85"/>
+      <c r="BM93" s="85"/>
+      <c r="BN93" s="85"/>
+      <c r="BO93" s="85"/>
+      <c r="BP93" s="85"/>
+      <c r="BQ93" s="85"/>
+      <c r="BR93" s="85"/>
+      <c r="BS93" s="85"/>
+      <c r="BT93" s="85"/>
       <c r="BU93"/>
     </row>
     <row r="94" spans="1:73" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
-      <c r="B94" s="103" t="s">
+      <c r="B94" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="C94" s="103"/>
-      <c r="D94" s="104"/>
-      <c r="E94" s="100"/>
-      <c r="F94" s="93"/>
-      <c r="G94" s="93"/>
-      <c r="H94" s="93"/>
-      <c r="I94" s="93"/>
-      <c r="J94" s="93"/>
-      <c r="K94" s="93"/>
-      <c r="L94" s="93"/>
-      <c r="M94" s="93"/>
-      <c r="N94" s="93"/>
-      <c r="O94" s="93"/>
-      <c r="P94" s="93"/>
-      <c r="Q94" s="93"/>
-      <c r="R94" s="93"/>
-      <c r="S94" s="93"/>
-      <c r="T94" s="93"/>
-      <c r="U94" s="93"/>
-      <c r="V94" s="93"/>
-      <c r="W94" s="93"/>
-      <c r="X94" s="93"/>
-      <c r="Y94" s="93"/>
-      <c r="Z94" s="93"/>
-      <c r="AA94" s="93"/>
-      <c r="AB94" s="93"/>
-      <c r="AC94" s="93"/>
-      <c r="AD94" s="93"/>
-      <c r="AE94" s="93"/>
-      <c r="AF94" s="93"/>
-      <c r="AG94" s="93"/>
-      <c r="AH94" s="93"/>
-      <c r="AI94" s="93"/>
-      <c r="AJ94" s="93"/>
-      <c r="AK94" s="93"/>
-      <c r="AL94" s="93"/>
-      <c r="AM94" s="93"/>
-      <c r="AN94" s="93"/>
-      <c r="AO94" s="93"/>
-      <c r="AP94" s="93"/>
-      <c r="AQ94" s="93"/>
-      <c r="AR94" s="93"/>
-      <c r="AS94" s="93"/>
-      <c r="AT94" s="93"/>
-      <c r="AU94" s="93"/>
-      <c r="AV94" s="93"/>
-      <c r="AW94" s="93"/>
-      <c r="AX94" s="93"/>
-      <c r="AY94" s="93"/>
-      <c r="AZ94" s="93"/>
-      <c r="BA94" s="93"/>
-      <c r="BB94" s="93"/>
-      <c r="BC94" s="93"/>
-      <c r="BD94" s="93"/>
-      <c r="BE94" s="93"/>
-      <c r="BF94" s="93"/>
-      <c r="BG94" s="93"/>
-      <c r="BH94" s="93"/>
-      <c r="BI94" s="93"/>
-      <c r="BJ94" s="93"/>
-      <c r="BK94" s="93"/>
-      <c r="BL94" s="93"/>
-      <c r="BM94" s="93"/>
-      <c r="BN94" s="93"/>
-      <c r="BO94" s="93"/>
-      <c r="BP94" s="93"/>
-      <c r="BQ94" s="93"/>
-      <c r="BR94" s="93"/>
-      <c r="BS94" s="93"/>
-      <c r="BT94" s="93"/>
+      <c r="C94" s="89"/>
+      <c r="D94" s="116"/>
+      <c r="E94" s="90"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="85"/>
+      <c r="L94" s="85"/>
+      <c r="M94" s="85"/>
+      <c r="N94" s="85"/>
+      <c r="O94" s="85"/>
+      <c r="P94" s="85"/>
+      <c r="Q94" s="85"/>
+      <c r="R94" s="85"/>
+      <c r="S94" s="85"/>
+      <c r="T94" s="85"/>
+      <c r="U94" s="85"/>
+      <c r="V94" s="85"/>
+      <c r="W94" s="85"/>
+      <c r="X94" s="85"/>
+      <c r="Y94" s="85"/>
+      <c r="Z94" s="85"/>
+      <c r="AA94" s="85"/>
+      <c r="AB94" s="85"/>
+      <c r="AC94" s="85"/>
+      <c r="AD94" s="85"/>
+      <c r="AE94" s="85"/>
+      <c r="AF94" s="85"/>
+      <c r="AG94" s="85"/>
+      <c r="AH94" s="85"/>
+      <c r="AI94" s="85"/>
+      <c r="AJ94" s="85"/>
+      <c r="AK94" s="85"/>
+      <c r="AL94" s="85"/>
+      <c r="AM94" s="85"/>
+      <c r="AN94" s="85"/>
+      <c r="AO94" s="85"/>
+      <c r="AP94" s="85"/>
+      <c r="AQ94" s="85"/>
+      <c r="AR94" s="85"/>
+      <c r="AS94" s="85"/>
+      <c r="AT94" s="85"/>
+      <c r="AU94" s="85"/>
+      <c r="AV94" s="85"/>
+      <c r="AW94" s="85"/>
+      <c r="AX94" s="85"/>
+      <c r="AY94" s="85"/>
+      <c r="AZ94" s="85"/>
+      <c r="BA94" s="85"/>
+      <c r="BB94" s="85"/>
+      <c r="BC94" s="85"/>
+      <c r="BD94" s="85"/>
+      <c r="BE94" s="85"/>
+      <c r="BF94" s="85"/>
+      <c r="BG94" s="85"/>
+      <c r="BH94" s="85"/>
+      <c r="BI94" s="85"/>
+      <c r="BJ94" s="85"/>
+      <c r="BK94" s="85"/>
+      <c r="BL94" s="85"/>
+      <c r="BM94" s="85"/>
+      <c r="BN94" s="85"/>
+      <c r="BO94" s="85"/>
+      <c r="BP94" s="85"/>
+      <c r="BQ94" s="85"/>
+      <c r="BR94" s="85"/>
+      <c r="BS94" s="85"/>
+      <c r="BT94" s="85"/>
       <c r="BU94"/>
     </row>
     <row r="95" spans="1:73" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5"/>
-      <c r="B95" s="103"/>
-      <c r="C95" s="103"/>
-      <c r="D95" s="104"/>
-      <c r="E95" s="100"/>
-      <c r="F95" s="93"/>
-      <c r="G95" s="93"/>
-      <c r="H95" s="93"/>
-      <c r="I95" s="93"/>
-      <c r="J95" s="93"/>
-      <c r="K95" s="93"/>
-      <c r="L95" s="93"/>
-      <c r="M95" s="93"/>
-      <c r="N95" s="93"/>
-      <c r="O95" s="93"/>
-      <c r="P95" s="93"/>
-      <c r="Q95" s="93"/>
-      <c r="R95" s="93"/>
-      <c r="S95" s="93"/>
-      <c r="T95" s="93"/>
-      <c r="U95" s="93"/>
-      <c r="V95" s="93"/>
-      <c r="W95" s="93"/>
-      <c r="X95" s="93"/>
-      <c r="Y95" s="93"/>
-      <c r="Z95" s="93"/>
-      <c r="AA95" s="93"/>
-      <c r="AB95" s="93"/>
-      <c r="AC95" s="93"/>
-      <c r="AD95" s="93"/>
-      <c r="AE95" s="93"/>
-      <c r="AF95" s="93"/>
-      <c r="AG95" s="93"/>
-      <c r="AH95" s="93"/>
-      <c r="AI95" s="93"/>
-      <c r="AJ95" s="93"/>
-      <c r="AK95" s="93"/>
-      <c r="AL95" s="93"/>
-      <c r="AM95" s="93"/>
-      <c r="AN95" s="93"/>
-      <c r="AO95" s="93"/>
-      <c r="AP95" s="93"/>
-      <c r="AQ95" s="93"/>
-      <c r="AR95" s="93"/>
-      <c r="AS95" s="93"/>
-      <c r="AT95" s="93"/>
-      <c r="AU95" s="93"/>
-      <c r="AV95" s="93"/>
-      <c r="AW95" s="93"/>
-      <c r="AX95" s="93"/>
-      <c r="AY95" s="93"/>
-      <c r="AZ95" s="93"/>
-      <c r="BA95" s="93"/>
-      <c r="BB95" s="93"/>
-      <c r="BC95" s="93"/>
-      <c r="BD95" s="93"/>
-      <c r="BE95" s="93"/>
-      <c r="BF95" s="93"/>
-      <c r="BG95" s="93"/>
-      <c r="BH95" s="93"/>
-      <c r="BI95" s="93"/>
-      <c r="BJ95" s="93"/>
-      <c r="BK95" s="93"/>
-      <c r="BL95" s="93"/>
-      <c r="BM95" s="93"/>
-      <c r="BN95" s="93"/>
-      <c r="BO95" s="93"/>
-      <c r="BP95" s="93"/>
-      <c r="BQ95" s="93"/>
-      <c r="BR95" s="93"/>
-      <c r="BS95" s="93"/>
-      <c r="BT95" s="93"/>
+      <c r="B95" s="89"/>
+      <c r="C95" s="89"/>
+      <c r="D95" s="116"/>
+      <c r="E95" s="90"/>
+      <c r="F95" s="85"/>
+      <c r="G95" s="85"/>
+      <c r="H95" s="85"/>
+      <c r="I95" s="85"/>
+      <c r="J95" s="85"/>
+      <c r="K95" s="85"/>
+      <c r="L95" s="85"/>
+      <c r="M95" s="85"/>
+      <c r="N95" s="85"/>
+      <c r="O95" s="85"/>
+      <c r="P95" s="85"/>
+      <c r="Q95" s="85"/>
+      <c r="R95" s="85"/>
+      <c r="S95" s="85"/>
+      <c r="T95" s="85"/>
+      <c r="U95" s="85"/>
+      <c r="V95" s="85"/>
+      <c r="W95" s="85"/>
+      <c r="X95" s="85"/>
+      <c r="Y95" s="85"/>
+      <c r="Z95" s="85"/>
+      <c r="AA95" s="85"/>
+      <c r="AB95" s="85"/>
+      <c r="AC95" s="85"/>
+      <c r="AD95" s="85"/>
+      <c r="AE95" s="85"/>
+      <c r="AF95" s="85"/>
+      <c r="AG95" s="85"/>
+      <c r="AH95" s="85"/>
+      <c r="AI95" s="85"/>
+      <c r="AJ95" s="85"/>
+      <c r="AK95" s="85"/>
+      <c r="AL95" s="85"/>
+      <c r="AM95" s="85"/>
+      <c r="AN95" s="85"/>
+      <c r="AO95" s="85"/>
+      <c r="AP95" s="85"/>
+      <c r="AQ95" s="85"/>
+      <c r="AR95" s="85"/>
+      <c r="AS95" s="85"/>
+      <c r="AT95" s="85"/>
+      <c r="AU95" s="85"/>
+      <c r="AV95" s="85"/>
+      <c r="AW95" s="85"/>
+      <c r="AX95" s="85"/>
+      <c r="AY95" s="85"/>
+      <c r="AZ95" s="85"/>
+      <c r="BA95" s="85"/>
+      <c r="BB95" s="85"/>
+      <c r="BC95" s="85"/>
+      <c r="BD95" s="85"/>
+      <c r="BE95" s="85"/>
+      <c r="BF95" s="85"/>
+      <c r="BG95" s="85"/>
+      <c r="BH95" s="85"/>
+      <c r="BI95" s="85"/>
+      <c r="BJ95" s="85"/>
+      <c r="BK95" s="85"/>
+      <c r="BL95" s="85"/>
+      <c r="BM95" s="85"/>
+      <c r="BN95" s="85"/>
+      <c r="BO95" s="85"/>
+      <c r="BP95" s="85"/>
+      <c r="BQ95" s="85"/>
+      <c r="BR95" s="85"/>
+      <c r="BS95" s="85"/>
+      <c r="BT95" s="85"/>
       <c r="BU95"/>
     </row>
     <row r="96" spans="1:73" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="30"/>
-      <c r="C96" s="105" t="s">
+      <c r="C96" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="103" t="s">
+      <c r="D96" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="84"/>
-      <c r="F96" s="93"/>
-      <c r="G96" s="93"/>
-      <c r="H96" s="93"/>
-      <c r="I96" s="93"/>
-      <c r="J96" s="93"/>
-      <c r="K96" s="93"/>
-      <c r="L96" s="93"/>
-      <c r="M96" s="93"/>
-      <c r="N96" s="93"/>
-      <c r="O96" s="93"/>
-      <c r="P96" s="93"/>
-      <c r="Q96" s="93"/>
-      <c r="R96" s="93"/>
-      <c r="S96" s="93"/>
-      <c r="T96" s="93"/>
-      <c r="U96" s="93"/>
-      <c r="V96" s="93"/>
-      <c r="W96" s="93"/>
-      <c r="X96" s="93"/>
-      <c r="Y96" s="93"/>
-      <c r="Z96" s="93"/>
-      <c r="AA96" s="93"/>
-      <c r="AB96" s="93"/>
-      <c r="AC96" s="93"/>
-      <c r="AD96" s="93"/>
-      <c r="AE96" s="93"/>
-      <c r="AF96" s="93"/>
-      <c r="AG96" s="93"/>
-      <c r="AH96" s="93"/>
-      <c r="AI96" s="93"/>
-      <c r="AJ96" s="93"/>
-      <c r="AK96" s="93"/>
-      <c r="AL96" s="93"/>
-      <c r="AM96" s="93"/>
-      <c r="AN96" s="93"/>
-      <c r="AO96" s="93"/>
-      <c r="AP96" s="93"/>
-      <c r="AQ96" s="93"/>
-      <c r="AR96" s="93"/>
-      <c r="AS96" s="93"/>
-      <c r="AT96" s="93"/>
-      <c r="AU96" s="93"/>
-      <c r="AV96" s="93"/>
-      <c r="AW96" s="93"/>
-      <c r="AX96" s="93"/>
-      <c r="AY96" s="93"/>
-      <c r="AZ96" s="93"/>
-      <c r="BA96" s="93"/>
-      <c r="BB96" s="93"/>
-      <c r="BC96" s="93"/>
-      <c r="BD96" s="93"/>
-      <c r="BE96" s="93"/>
-      <c r="BF96" s="93"/>
-      <c r="BG96" s="93"/>
-      <c r="BH96" s="93"/>
-      <c r="BI96" s="93"/>
-      <c r="BJ96" s="93"/>
-      <c r="BK96" s="93"/>
-      <c r="BL96" s="93"/>
-      <c r="BM96" s="93"/>
-      <c r="BN96" s="93"/>
-      <c r="BO96" s="93"/>
-      <c r="BP96" s="93"/>
-      <c r="BQ96" s="93"/>
-      <c r="BR96" s="93"/>
-      <c r="BS96" s="93"/>
-      <c r="BT96" s="93"/>
+      <c r="E96" s="119"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="85"/>
+      <c r="H96" s="85"/>
+      <c r="I96" s="85"/>
+      <c r="J96" s="85"/>
+      <c r="K96" s="85"/>
+      <c r="L96" s="85"/>
+      <c r="M96" s="85"/>
+      <c r="N96" s="85"/>
+      <c r="O96" s="85"/>
+      <c r="P96" s="85"/>
+      <c r="Q96" s="85"/>
+      <c r="R96" s="85"/>
+      <c r="S96" s="85"/>
+      <c r="T96" s="85"/>
+      <c r="U96" s="85"/>
+      <c r="V96" s="85"/>
+      <c r="W96" s="85"/>
+      <c r="X96" s="85"/>
+      <c r="Y96" s="85"/>
+      <c r="Z96" s="85"/>
+      <c r="AA96" s="85"/>
+      <c r="AB96" s="85"/>
+      <c r="AC96" s="85"/>
+      <c r="AD96" s="85"/>
+      <c r="AE96" s="85"/>
+      <c r="AF96" s="85"/>
+      <c r="AG96" s="85"/>
+      <c r="AH96" s="85"/>
+      <c r="AI96" s="85"/>
+      <c r="AJ96" s="85"/>
+      <c r="AK96" s="85"/>
+      <c r="AL96" s="85"/>
+      <c r="AM96" s="85"/>
+      <c r="AN96" s="85"/>
+      <c r="AO96" s="85"/>
+      <c r="AP96" s="85"/>
+      <c r="AQ96" s="85"/>
+      <c r="AR96" s="85"/>
+      <c r="AS96" s="85"/>
+      <c r="AT96" s="85"/>
+      <c r="AU96" s="85"/>
+      <c r="AV96" s="85"/>
+      <c r="AW96" s="85"/>
+      <c r="AX96" s="85"/>
+      <c r="AY96" s="85"/>
+      <c r="AZ96" s="85"/>
+      <c r="BA96" s="85"/>
+      <c r="BB96" s="85"/>
+      <c r="BC96" s="85"/>
+      <c r="BD96" s="85"/>
+      <c r="BE96" s="85"/>
+      <c r="BF96" s="85"/>
+      <c r="BG96" s="85"/>
+      <c r="BH96" s="85"/>
+      <c r="BI96" s="85"/>
+      <c r="BJ96" s="85"/>
+      <c r="BK96" s="85"/>
+      <c r="BL96" s="85"/>
+      <c r="BM96" s="85"/>
+      <c r="BN96" s="85"/>
+      <c r="BO96" s="85"/>
+      <c r="BP96" s="85"/>
+      <c r="BQ96" s="85"/>
+      <c r="BR96" s="85"/>
+      <c r="BS96" s="85"/>
+      <c r="BT96" s="85"/>
       <c r="BU96"/>
     </row>
     <row r="97" spans="1:79" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="105"/>
-      <c r="D97" s="103"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="93"/>
-      <c r="G97" s="93"/>
-      <c r="H97" s="93"/>
-      <c r="I97" s="93"/>
-      <c r="J97" s="93"/>
-      <c r="K97" s="93"/>
-      <c r="L97" s="93"/>
-      <c r="M97" s="93"/>
-      <c r="N97" s="93"/>
-      <c r="O97" s="93"/>
-      <c r="P97" s="93"/>
-      <c r="Q97" s="93"/>
-      <c r="R97" s="93"/>
-      <c r="S97" s="93"/>
-      <c r="T97" s="93"/>
-      <c r="U97" s="93"/>
-      <c r="V97" s="93"/>
-      <c r="W97" s="93"/>
-      <c r="X97" s="93"/>
-      <c r="Y97" s="93"/>
-      <c r="Z97" s="93"/>
-      <c r="AA97" s="93"/>
-      <c r="AB97" s="93"/>
-      <c r="AC97" s="93"/>
-      <c r="AD97" s="93"/>
-      <c r="AE97" s="93"/>
-      <c r="AF97" s="93"/>
-      <c r="AG97" s="93"/>
-      <c r="AH97" s="93"/>
-      <c r="AI97" s="93"/>
-      <c r="AJ97" s="93"/>
-      <c r="AK97" s="93"/>
-      <c r="AL97" s="93"/>
-      <c r="AM97" s="93"/>
-      <c r="AN97" s="93"/>
-      <c r="AO97" s="93"/>
-      <c r="AP97" s="93"/>
-      <c r="AQ97" s="93"/>
-      <c r="AR97" s="93"/>
-      <c r="AS97" s="93"/>
-      <c r="AT97" s="93"/>
-      <c r="AU97" s="93"/>
-      <c r="AV97" s="93"/>
-      <c r="AW97" s="93"/>
-      <c r="AX97" s="93"/>
-      <c r="AY97" s="93"/>
-      <c r="AZ97" s="93"/>
-      <c r="BA97" s="93"/>
-      <c r="BB97" s="93"/>
-      <c r="BC97" s="93"/>
-      <c r="BD97" s="93"/>
-      <c r="BE97" s="93"/>
-      <c r="BF97" s="93"/>
-      <c r="BG97" s="93"/>
-      <c r="BH97" s="93"/>
-      <c r="BI97" s="93"/>
-      <c r="BJ97" s="93"/>
-      <c r="BK97" s="93"/>
-      <c r="BL97" s="93"/>
-      <c r="BM97" s="93"/>
-      <c r="BN97" s="93"/>
-      <c r="BO97" s="93"/>
-      <c r="BP97" s="93"/>
-      <c r="BQ97" s="93"/>
-      <c r="BR97" s="93"/>
-      <c r="BS97" s="93"/>
-      <c r="BT97" s="93"/>
+      <c r="C97" s="111"/>
+      <c r="D97" s="89"/>
+      <c r="E97" s="119"/>
+      <c r="F97" s="85"/>
+      <c r="G97" s="85"/>
+      <c r="H97" s="85"/>
+      <c r="I97" s="85"/>
+      <c r="J97" s="85"/>
+      <c r="K97" s="85"/>
+      <c r="L97" s="85"/>
+      <c r="M97" s="85"/>
+      <c r="N97" s="85"/>
+      <c r="O97" s="85"/>
+      <c r="P97" s="85"/>
+      <c r="Q97" s="85"/>
+      <c r="R97" s="85"/>
+      <c r="S97" s="85"/>
+      <c r="T97" s="85"/>
+      <c r="U97" s="85"/>
+      <c r="V97" s="85"/>
+      <c r="W97" s="85"/>
+      <c r="X97" s="85"/>
+      <c r="Y97" s="85"/>
+      <c r="Z97" s="85"/>
+      <c r="AA97" s="85"/>
+      <c r="AB97" s="85"/>
+      <c r="AC97" s="85"/>
+      <c r="AD97" s="85"/>
+      <c r="AE97" s="85"/>
+      <c r="AF97" s="85"/>
+      <c r="AG97" s="85"/>
+      <c r="AH97" s="85"/>
+      <c r="AI97" s="85"/>
+      <c r="AJ97" s="85"/>
+      <c r="AK97" s="85"/>
+      <c r="AL97" s="85"/>
+      <c r="AM97" s="85"/>
+      <c r="AN97" s="85"/>
+      <c r="AO97" s="85"/>
+      <c r="AP97" s="85"/>
+      <c r="AQ97" s="85"/>
+      <c r="AR97" s="85"/>
+      <c r="AS97" s="85"/>
+      <c r="AT97" s="85"/>
+      <c r="AU97" s="85"/>
+      <c r="AV97" s="85"/>
+      <c r="AW97" s="85"/>
+      <c r="AX97" s="85"/>
+      <c r="AY97" s="85"/>
+      <c r="AZ97" s="85"/>
+      <c r="BA97" s="85"/>
+      <c r="BB97" s="85"/>
+      <c r="BC97" s="85"/>
+      <c r="BD97" s="85"/>
+      <c r="BE97" s="85"/>
+      <c r="BF97" s="85"/>
+      <c r="BG97" s="85"/>
+      <c r="BH97" s="85"/>
+      <c r="BI97" s="85"/>
+      <c r="BJ97" s="85"/>
+      <c r="BK97" s="85"/>
+      <c r="BL97" s="85"/>
+      <c r="BM97" s="85"/>
+      <c r="BN97" s="85"/>
+      <c r="BO97" s="85"/>
+      <c r="BP97" s="85"/>
+      <c r="BQ97" s="85"/>
+      <c r="BR97" s="85"/>
+      <c r="BS97" s="85"/>
+      <c r="BT97" s="85"/>
       <c r="BU97"/>
     </row>
     <row r="98" spans="1:79" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10687,54 +10702,554 @@
     <row r="122" spans="1:79" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="620">
-    <mergeCell ref="BA96:BA97"/>
-    <mergeCell ref="BB96:BB97"/>
-    <mergeCell ref="BC96:BC97"/>
-    <mergeCell ref="BD96:BD97"/>
-    <mergeCell ref="BE96:BE97"/>
-    <mergeCell ref="BF96:BF97"/>
-    <mergeCell ref="BG96:BG97"/>
-    <mergeCell ref="BH96:BH97"/>
-    <mergeCell ref="BI96:BI97"/>
-    <mergeCell ref="BS96:BS97"/>
-    <mergeCell ref="BT96:BT97"/>
-    <mergeCell ref="BJ96:BJ97"/>
-    <mergeCell ref="BK96:BK97"/>
-    <mergeCell ref="BL96:BL97"/>
-    <mergeCell ref="BM96:BM97"/>
-    <mergeCell ref="BN96:BN97"/>
-    <mergeCell ref="BO96:BO97"/>
-    <mergeCell ref="BP96:BP97"/>
-    <mergeCell ref="BQ96:BQ97"/>
-    <mergeCell ref="BR96:BR97"/>
-    <mergeCell ref="AH96:AH97"/>
-    <mergeCell ref="AU96:AU97"/>
-    <mergeCell ref="AV96:AV97"/>
-    <mergeCell ref="AW96:AW97"/>
-    <mergeCell ref="AX96:AX97"/>
-    <mergeCell ref="AY96:AY97"/>
-    <mergeCell ref="AZ96:AZ97"/>
-    <mergeCell ref="AI96:AI97"/>
-    <mergeCell ref="AJ96:AJ97"/>
-    <mergeCell ref="AK96:AK97"/>
-    <mergeCell ref="AL96:AL97"/>
-    <mergeCell ref="AM96:AM97"/>
-    <mergeCell ref="AN96:AN97"/>
-    <mergeCell ref="AO96:AO97"/>
-    <mergeCell ref="AP96:AP97"/>
-    <mergeCell ref="AQ96:AQ97"/>
-    <mergeCell ref="AR96:AR97"/>
-    <mergeCell ref="AS96:AS97"/>
-    <mergeCell ref="AT96:AT97"/>
-    <mergeCell ref="Y96:Y97"/>
-    <mergeCell ref="Z96:Z97"/>
-    <mergeCell ref="AA96:AA97"/>
-    <mergeCell ref="AB96:AB97"/>
-    <mergeCell ref="AC96:AC97"/>
-    <mergeCell ref="AD96:AD97"/>
-    <mergeCell ref="AE96:AE97"/>
-    <mergeCell ref="AF96:AF97"/>
-    <mergeCell ref="AG96:AG97"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="BA64:BA65"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="BS80:BS81"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B64:G65"/>
+    <mergeCell ref="B80:G81"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="AQ54:AQ55"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="B16:G17"/>
+    <mergeCell ref="B30:G31"/>
+    <mergeCell ref="B54:G55"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="B70:E71"/>
+    <mergeCell ref="B72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="BC1:BF1"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="B94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AY1:BB1"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="A86:G87"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="B78:E79"/>
+    <mergeCell ref="B82:E83"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="B92:C93"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="A68:G69"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="B76:E77"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="B52:E53"/>
+    <mergeCell ref="B56:E57"/>
+    <mergeCell ref="A58:G59"/>
+    <mergeCell ref="B74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="B60:E61"/>
+    <mergeCell ref="B66:E67"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="B62:E63"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="B50:E51"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="B46:E47"/>
+    <mergeCell ref="B48:E49"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="B42:E43"/>
+    <mergeCell ref="B44:E45"/>
+    <mergeCell ref="A40:G41"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B38:E39"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B36:E37"/>
+    <mergeCell ref="A34:G35"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B28:E29"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B26:E27"/>
+    <mergeCell ref="B24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B22:E23"/>
+    <mergeCell ref="A20:G21"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="BH2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BS2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AM2:AP2"/>
+    <mergeCell ref="AQ2:AT2"/>
+    <mergeCell ref="AU2:AX2"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="BH1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BS1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="V1:Y1"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="H90:H91"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="B88:C89"/>
+    <mergeCell ref="B90:C91"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="A84:E85"/>
+    <mergeCell ref="K84:K85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="O84:O85"/>
+    <mergeCell ref="P84:P85"/>
+    <mergeCell ref="Q84:Q85"/>
+    <mergeCell ref="R84:R85"/>
+    <mergeCell ref="S84:S85"/>
+    <mergeCell ref="T84:T85"/>
+    <mergeCell ref="U84:U85"/>
+    <mergeCell ref="V84:V85"/>
+    <mergeCell ref="W84:W85"/>
+    <mergeCell ref="X84:X85"/>
+    <mergeCell ref="Y84:Y85"/>
+    <mergeCell ref="Z84:Z85"/>
+    <mergeCell ref="AA84:AA85"/>
+    <mergeCell ref="AB84:AB85"/>
+    <mergeCell ref="AC84:AC85"/>
+    <mergeCell ref="AD84:AD85"/>
+    <mergeCell ref="AE84:AE85"/>
+    <mergeCell ref="AF84:AF85"/>
+    <mergeCell ref="AG84:AG85"/>
+    <mergeCell ref="AH84:AH85"/>
+    <mergeCell ref="AI84:AI85"/>
+    <mergeCell ref="AJ84:AJ85"/>
+    <mergeCell ref="AK84:AK85"/>
+    <mergeCell ref="AL84:AL85"/>
+    <mergeCell ref="AM84:AM85"/>
+    <mergeCell ref="AN84:AN85"/>
+    <mergeCell ref="AO84:AO85"/>
+    <mergeCell ref="AP84:AP85"/>
+    <mergeCell ref="AQ84:AQ85"/>
+    <mergeCell ref="AR84:AR85"/>
+    <mergeCell ref="AS84:AS85"/>
+    <mergeCell ref="AT84:AT85"/>
+    <mergeCell ref="AU84:AU85"/>
+    <mergeCell ref="AV84:AV85"/>
+    <mergeCell ref="AW84:AW85"/>
+    <mergeCell ref="AX84:AX85"/>
+    <mergeCell ref="AY84:AY85"/>
+    <mergeCell ref="AZ84:AZ85"/>
+    <mergeCell ref="BA84:BA85"/>
+    <mergeCell ref="BB84:BB85"/>
+    <mergeCell ref="BC84:BC85"/>
+    <mergeCell ref="BD84:BD85"/>
+    <mergeCell ref="BE84:BE85"/>
+    <mergeCell ref="BF84:BF85"/>
+    <mergeCell ref="BG84:BG85"/>
+    <mergeCell ref="BH84:BH85"/>
+    <mergeCell ref="BI84:BI85"/>
+    <mergeCell ref="BJ84:BJ85"/>
+    <mergeCell ref="BK84:BK85"/>
+    <mergeCell ref="BL84:BL85"/>
+    <mergeCell ref="BM84:BM85"/>
+    <mergeCell ref="BN84:BN85"/>
+    <mergeCell ref="BO84:BO85"/>
+    <mergeCell ref="BP84:BP85"/>
+    <mergeCell ref="BQ84:BQ85"/>
+    <mergeCell ref="BR84:BR85"/>
+    <mergeCell ref="BS84:BS85"/>
+    <mergeCell ref="BT84:BT85"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="K86:K87"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="N86:N87"/>
+    <mergeCell ref="O86:O87"/>
+    <mergeCell ref="P86:P87"/>
+    <mergeCell ref="Q86:Q87"/>
+    <mergeCell ref="R86:R87"/>
+    <mergeCell ref="S86:S87"/>
+    <mergeCell ref="T86:T87"/>
+    <mergeCell ref="U86:U87"/>
+    <mergeCell ref="V86:V87"/>
+    <mergeCell ref="W86:W87"/>
+    <mergeCell ref="X86:X87"/>
+    <mergeCell ref="Y86:Y87"/>
+    <mergeCell ref="Z86:Z87"/>
+    <mergeCell ref="AA86:AA87"/>
+    <mergeCell ref="AB86:AB87"/>
+    <mergeCell ref="AC86:AC87"/>
+    <mergeCell ref="AD86:AD87"/>
+    <mergeCell ref="AE86:AE87"/>
+    <mergeCell ref="AF86:AF87"/>
+    <mergeCell ref="AG86:AG87"/>
+    <mergeCell ref="AH86:AH87"/>
+    <mergeCell ref="AI86:AI87"/>
+    <mergeCell ref="AJ86:AJ87"/>
+    <mergeCell ref="AK86:AK87"/>
+    <mergeCell ref="AL86:AL87"/>
+    <mergeCell ref="AM86:AM87"/>
+    <mergeCell ref="AN86:AN87"/>
+    <mergeCell ref="AO86:AO87"/>
+    <mergeCell ref="AP86:AP87"/>
+    <mergeCell ref="AQ86:AQ87"/>
+    <mergeCell ref="AR86:AR87"/>
+    <mergeCell ref="AS86:AS87"/>
+    <mergeCell ref="AT86:AT87"/>
+    <mergeCell ref="AU86:AU87"/>
+    <mergeCell ref="AV86:AV87"/>
+    <mergeCell ref="AW86:AW87"/>
+    <mergeCell ref="AX86:AX87"/>
+    <mergeCell ref="AY86:AY87"/>
+    <mergeCell ref="AZ86:AZ87"/>
+    <mergeCell ref="BA86:BA87"/>
+    <mergeCell ref="BB86:BB87"/>
+    <mergeCell ref="BC86:BC87"/>
+    <mergeCell ref="BD86:BD87"/>
+    <mergeCell ref="BE86:BE87"/>
+    <mergeCell ref="BF86:BF87"/>
+    <mergeCell ref="BG86:BG87"/>
+    <mergeCell ref="BH86:BH87"/>
+    <mergeCell ref="BI86:BI87"/>
+    <mergeCell ref="BJ86:BJ87"/>
+    <mergeCell ref="BK86:BK87"/>
+    <mergeCell ref="BL86:BL87"/>
+    <mergeCell ref="BM86:BM87"/>
+    <mergeCell ref="BN86:BN87"/>
+    <mergeCell ref="BO86:BO87"/>
+    <mergeCell ref="BP86:BP87"/>
+    <mergeCell ref="BQ86:BQ87"/>
+    <mergeCell ref="BR86:BR87"/>
+    <mergeCell ref="BS86:BS87"/>
+    <mergeCell ref="BT86:BT87"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="N88:N89"/>
+    <mergeCell ref="O88:O89"/>
+    <mergeCell ref="P88:P89"/>
+    <mergeCell ref="Q88:Q89"/>
+    <mergeCell ref="R88:R89"/>
+    <mergeCell ref="S88:S89"/>
+    <mergeCell ref="T88:T89"/>
+    <mergeCell ref="U88:U89"/>
+    <mergeCell ref="V88:V89"/>
+    <mergeCell ref="W88:W89"/>
+    <mergeCell ref="X88:X89"/>
+    <mergeCell ref="Y88:Y89"/>
+    <mergeCell ref="Z88:Z89"/>
+    <mergeCell ref="AA88:AA89"/>
+    <mergeCell ref="AB88:AB89"/>
+    <mergeCell ref="AC88:AC89"/>
+    <mergeCell ref="AD88:AD89"/>
+    <mergeCell ref="AE88:AE89"/>
+    <mergeCell ref="AF88:AF89"/>
+    <mergeCell ref="AG88:AG89"/>
+    <mergeCell ref="AH88:AH89"/>
+    <mergeCell ref="AI88:AI89"/>
+    <mergeCell ref="AJ88:AJ89"/>
+    <mergeCell ref="AK88:AK89"/>
+    <mergeCell ref="AL88:AL89"/>
+    <mergeCell ref="AM88:AM89"/>
+    <mergeCell ref="AN88:AN89"/>
+    <mergeCell ref="AO88:AO89"/>
+    <mergeCell ref="AP88:AP89"/>
+    <mergeCell ref="AQ88:AQ89"/>
+    <mergeCell ref="AR88:AR89"/>
+    <mergeCell ref="AS88:AS89"/>
+    <mergeCell ref="AT88:AT89"/>
+    <mergeCell ref="AU88:AU89"/>
+    <mergeCell ref="AV88:AV89"/>
+    <mergeCell ref="AW88:AW89"/>
+    <mergeCell ref="AX88:AX89"/>
+    <mergeCell ref="AY88:AY89"/>
+    <mergeCell ref="AZ88:AZ89"/>
+    <mergeCell ref="BA88:BA89"/>
+    <mergeCell ref="BB88:BB89"/>
+    <mergeCell ref="BC88:BC89"/>
+    <mergeCell ref="BD88:BD89"/>
+    <mergeCell ref="BE88:BE89"/>
+    <mergeCell ref="BF88:BF89"/>
+    <mergeCell ref="BG88:BG89"/>
+    <mergeCell ref="BH88:BH89"/>
+    <mergeCell ref="BI88:BI89"/>
+    <mergeCell ref="BJ88:BJ89"/>
+    <mergeCell ref="BK88:BK89"/>
+    <mergeCell ref="BL88:BL89"/>
+    <mergeCell ref="BM88:BM89"/>
+    <mergeCell ref="BN88:BN89"/>
+    <mergeCell ref="BO88:BO89"/>
+    <mergeCell ref="BP88:BP89"/>
+    <mergeCell ref="BQ88:BQ89"/>
+    <mergeCell ref="BR88:BR89"/>
+    <mergeCell ref="BS88:BS89"/>
+    <mergeCell ref="BT88:BT89"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="N90:N91"/>
+    <mergeCell ref="O90:O91"/>
+    <mergeCell ref="P90:P91"/>
+    <mergeCell ref="Q90:Q91"/>
+    <mergeCell ref="R90:R91"/>
+    <mergeCell ref="S90:S91"/>
+    <mergeCell ref="T90:T91"/>
+    <mergeCell ref="U90:U91"/>
+    <mergeCell ref="V90:V91"/>
+    <mergeCell ref="W90:W91"/>
+    <mergeCell ref="X90:X91"/>
+    <mergeCell ref="Y90:Y91"/>
+    <mergeCell ref="Z90:Z91"/>
+    <mergeCell ref="AA90:AA91"/>
+    <mergeCell ref="AB90:AB91"/>
+    <mergeCell ref="AC90:AC91"/>
+    <mergeCell ref="AD90:AD91"/>
+    <mergeCell ref="AE90:AE91"/>
+    <mergeCell ref="AF90:AF91"/>
+    <mergeCell ref="AG90:AG91"/>
+    <mergeCell ref="AH90:AH91"/>
+    <mergeCell ref="AI90:AI91"/>
+    <mergeCell ref="AJ90:AJ91"/>
+    <mergeCell ref="AK90:AK91"/>
+    <mergeCell ref="AL90:AL91"/>
+    <mergeCell ref="AM90:AM91"/>
+    <mergeCell ref="AN90:AN91"/>
+    <mergeCell ref="AO90:AO91"/>
+    <mergeCell ref="AP90:AP91"/>
+    <mergeCell ref="AQ90:AQ91"/>
+    <mergeCell ref="AR90:AR91"/>
+    <mergeCell ref="AS90:AS91"/>
+    <mergeCell ref="AT90:AT91"/>
+    <mergeCell ref="AU90:AU91"/>
+    <mergeCell ref="AV90:AV91"/>
+    <mergeCell ref="AW90:AW91"/>
+    <mergeCell ref="AX90:AX91"/>
+    <mergeCell ref="AY90:AY91"/>
+    <mergeCell ref="AZ90:AZ91"/>
+    <mergeCell ref="BA90:BA91"/>
+    <mergeCell ref="BB90:BB91"/>
+    <mergeCell ref="BC90:BC91"/>
+    <mergeCell ref="BD90:BD91"/>
+    <mergeCell ref="BE90:BE91"/>
+    <mergeCell ref="BF90:BF91"/>
+    <mergeCell ref="BG90:BG91"/>
+    <mergeCell ref="BH90:BH91"/>
+    <mergeCell ref="BI90:BI91"/>
+    <mergeCell ref="BJ90:BJ91"/>
+    <mergeCell ref="BK90:BK91"/>
+    <mergeCell ref="BL90:BL91"/>
+    <mergeCell ref="BM90:BM91"/>
+    <mergeCell ref="BN90:BN91"/>
+    <mergeCell ref="BO90:BO91"/>
+    <mergeCell ref="BP90:BP91"/>
+    <mergeCell ref="BQ90:BQ91"/>
+    <mergeCell ref="BR90:BR91"/>
+    <mergeCell ref="BS90:BS91"/>
+    <mergeCell ref="BT90:BT91"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="N92:N93"/>
+    <mergeCell ref="O92:O93"/>
+    <mergeCell ref="P92:P93"/>
+    <mergeCell ref="Q92:Q93"/>
+    <mergeCell ref="R92:R93"/>
+    <mergeCell ref="S92:S93"/>
+    <mergeCell ref="T92:T93"/>
+    <mergeCell ref="U92:U93"/>
+    <mergeCell ref="V92:V93"/>
+    <mergeCell ref="W92:W93"/>
+    <mergeCell ref="X92:X93"/>
+    <mergeCell ref="Y92:Y93"/>
+    <mergeCell ref="Z92:Z93"/>
+    <mergeCell ref="AA92:AA93"/>
+    <mergeCell ref="AB92:AB93"/>
+    <mergeCell ref="AC92:AC93"/>
+    <mergeCell ref="AD92:AD93"/>
+    <mergeCell ref="AE92:AE93"/>
+    <mergeCell ref="AF92:AF93"/>
+    <mergeCell ref="AG92:AG93"/>
+    <mergeCell ref="AH92:AH93"/>
+    <mergeCell ref="AI92:AI93"/>
+    <mergeCell ref="AJ92:AJ93"/>
+    <mergeCell ref="AK92:AK93"/>
+    <mergeCell ref="AL92:AL93"/>
+    <mergeCell ref="AM92:AM93"/>
+    <mergeCell ref="AN92:AN93"/>
+    <mergeCell ref="AO92:AO93"/>
+    <mergeCell ref="AP92:AP93"/>
+    <mergeCell ref="AQ92:AQ93"/>
+    <mergeCell ref="AR92:AR93"/>
+    <mergeCell ref="AS92:AS93"/>
+    <mergeCell ref="AT92:AT93"/>
+    <mergeCell ref="AU92:AU93"/>
+    <mergeCell ref="AV92:AV93"/>
+    <mergeCell ref="AW92:AW93"/>
+    <mergeCell ref="AX92:AX93"/>
+    <mergeCell ref="AY92:AY93"/>
+    <mergeCell ref="AZ92:AZ93"/>
+    <mergeCell ref="BA92:BA93"/>
+    <mergeCell ref="BB92:BB93"/>
+    <mergeCell ref="BC92:BC93"/>
+    <mergeCell ref="BD92:BD93"/>
+    <mergeCell ref="BE92:BE93"/>
+    <mergeCell ref="BF92:BF93"/>
+    <mergeCell ref="BG92:BG93"/>
+    <mergeCell ref="BH92:BH93"/>
+    <mergeCell ref="BI92:BI93"/>
+    <mergeCell ref="BJ92:BJ93"/>
+    <mergeCell ref="BK92:BK93"/>
+    <mergeCell ref="BL92:BL93"/>
+    <mergeCell ref="BM92:BM93"/>
+    <mergeCell ref="BN92:BN93"/>
+    <mergeCell ref="BO92:BO93"/>
+    <mergeCell ref="BP92:BP93"/>
+    <mergeCell ref="BQ92:BQ93"/>
+    <mergeCell ref="BR92:BR93"/>
+    <mergeCell ref="BS92:BS93"/>
+    <mergeCell ref="BT92:BT93"/>
+    <mergeCell ref="H94:H95"/>
+    <mergeCell ref="I94:I95"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="N94:N95"/>
+    <mergeCell ref="O94:O95"/>
+    <mergeCell ref="P94:P95"/>
+    <mergeCell ref="Q94:Q95"/>
+    <mergeCell ref="R94:R95"/>
+    <mergeCell ref="S94:S95"/>
+    <mergeCell ref="T94:T95"/>
+    <mergeCell ref="U94:U95"/>
+    <mergeCell ref="V94:V95"/>
+    <mergeCell ref="W94:W95"/>
+    <mergeCell ref="X94:X95"/>
+    <mergeCell ref="Y94:Y95"/>
+    <mergeCell ref="Z94:Z95"/>
+    <mergeCell ref="AA94:AA95"/>
+    <mergeCell ref="AB94:AB95"/>
+    <mergeCell ref="AC94:AC95"/>
+    <mergeCell ref="AD94:AD95"/>
+    <mergeCell ref="AE94:AE95"/>
+    <mergeCell ref="AF94:AF95"/>
+    <mergeCell ref="AG94:AG95"/>
+    <mergeCell ref="AH94:AH95"/>
+    <mergeCell ref="AI94:AI95"/>
+    <mergeCell ref="AJ94:AJ95"/>
+    <mergeCell ref="AK94:AK95"/>
+    <mergeCell ref="AL94:AL95"/>
+    <mergeCell ref="AM94:AM95"/>
+    <mergeCell ref="AN94:AN95"/>
+    <mergeCell ref="AO94:AO95"/>
+    <mergeCell ref="AP94:AP95"/>
+    <mergeCell ref="AQ94:AQ95"/>
+    <mergeCell ref="AR94:AR95"/>
+    <mergeCell ref="AS94:AS95"/>
+    <mergeCell ref="AT94:AT95"/>
+    <mergeCell ref="AU94:AU95"/>
+    <mergeCell ref="AV94:AV95"/>
+    <mergeCell ref="AW94:AW95"/>
+    <mergeCell ref="AX94:AX95"/>
+    <mergeCell ref="AY94:AY95"/>
+    <mergeCell ref="AZ94:AZ95"/>
+    <mergeCell ref="BA94:BA95"/>
+    <mergeCell ref="BB94:BB95"/>
+    <mergeCell ref="BC94:BC95"/>
+    <mergeCell ref="BD94:BD95"/>
+    <mergeCell ref="BE94:BE95"/>
+    <mergeCell ref="BF94:BF95"/>
+    <mergeCell ref="BG94:BG95"/>
+    <mergeCell ref="BH94:BH95"/>
+    <mergeCell ref="BI94:BI95"/>
+    <mergeCell ref="BJ94:BJ95"/>
+    <mergeCell ref="BK94:BK95"/>
+    <mergeCell ref="BL94:BL95"/>
+    <mergeCell ref="BM94:BM95"/>
     <mergeCell ref="BN94:BN95"/>
     <mergeCell ref="BO94:BO95"/>
     <mergeCell ref="BP94:BP95"/>
@@ -10759,554 +11274,54 @@
     <mergeCell ref="V96:V97"/>
     <mergeCell ref="W96:W97"/>
     <mergeCell ref="X96:X97"/>
-    <mergeCell ref="BE94:BE95"/>
-    <mergeCell ref="BF94:BF95"/>
-    <mergeCell ref="BG94:BG95"/>
-    <mergeCell ref="BH94:BH95"/>
-    <mergeCell ref="BI94:BI95"/>
-    <mergeCell ref="BJ94:BJ95"/>
-    <mergeCell ref="BK94:BK95"/>
-    <mergeCell ref="BL94:BL95"/>
-    <mergeCell ref="BM94:BM95"/>
-    <mergeCell ref="AV94:AV95"/>
-    <mergeCell ref="AW94:AW95"/>
-    <mergeCell ref="AX94:AX95"/>
-    <mergeCell ref="AY94:AY95"/>
-    <mergeCell ref="AZ94:AZ95"/>
-    <mergeCell ref="BA94:BA95"/>
-    <mergeCell ref="BB94:BB95"/>
-    <mergeCell ref="BC94:BC95"/>
-    <mergeCell ref="BD94:BD95"/>
-    <mergeCell ref="AM94:AM95"/>
-    <mergeCell ref="AN94:AN95"/>
-    <mergeCell ref="AO94:AO95"/>
-    <mergeCell ref="AP94:AP95"/>
-    <mergeCell ref="AQ94:AQ95"/>
-    <mergeCell ref="AR94:AR95"/>
-    <mergeCell ref="AS94:AS95"/>
-    <mergeCell ref="AT94:AT95"/>
-    <mergeCell ref="AU94:AU95"/>
-    <mergeCell ref="AD94:AD95"/>
-    <mergeCell ref="AE94:AE95"/>
-    <mergeCell ref="AF94:AF95"/>
-    <mergeCell ref="AG94:AG95"/>
-    <mergeCell ref="AH94:AH95"/>
-    <mergeCell ref="AI94:AI95"/>
-    <mergeCell ref="AJ94:AJ95"/>
-    <mergeCell ref="AK94:AK95"/>
-    <mergeCell ref="AL94:AL95"/>
-    <mergeCell ref="BS92:BS93"/>
-    <mergeCell ref="BT92:BT93"/>
-    <mergeCell ref="H94:H95"/>
-    <mergeCell ref="I94:I95"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="K94:K95"/>
-    <mergeCell ref="L94:L95"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="N94:N95"/>
-    <mergeCell ref="O94:O95"/>
-    <mergeCell ref="P94:P95"/>
-    <mergeCell ref="Q94:Q95"/>
-    <mergeCell ref="R94:R95"/>
-    <mergeCell ref="S94:S95"/>
-    <mergeCell ref="T94:T95"/>
-    <mergeCell ref="U94:U95"/>
-    <mergeCell ref="V94:V95"/>
-    <mergeCell ref="W94:W95"/>
-    <mergeCell ref="X94:X95"/>
-    <mergeCell ref="Y94:Y95"/>
-    <mergeCell ref="Z94:Z95"/>
-    <mergeCell ref="AA94:AA95"/>
-    <mergeCell ref="AB94:AB95"/>
-    <mergeCell ref="AC94:AC95"/>
-    <mergeCell ref="BJ92:BJ93"/>
-    <mergeCell ref="BK92:BK93"/>
-    <mergeCell ref="BL92:BL93"/>
-    <mergeCell ref="BM92:BM93"/>
-    <mergeCell ref="BN92:BN93"/>
-    <mergeCell ref="BO92:BO93"/>
-    <mergeCell ref="BP92:BP93"/>
-    <mergeCell ref="BQ92:BQ93"/>
-    <mergeCell ref="BR92:BR93"/>
-    <mergeCell ref="BA92:BA93"/>
-    <mergeCell ref="BB92:BB93"/>
-    <mergeCell ref="BC92:BC93"/>
-    <mergeCell ref="BD92:BD93"/>
-    <mergeCell ref="BE92:BE93"/>
-    <mergeCell ref="BF92:BF93"/>
-    <mergeCell ref="BG92:BG93"/>
-    <mergeCell ref="BH92:BH93"/>
-    <mergeCell ref="BI92:BI93"/>
-    <mergeCell ref="AR92:AR93"/>
-    <mergeCell ref="AS92:AS93"/>
-    <mergeCell ref="AT92:AT93"/>
-    <mergeCell ref="AU92:AU93"/>
-    <mergeCell ref="AV92:AV93"/>
-    <mergeCell ref="AW92:AW93"/>
-    <mergeCell ref="AX92:AX93"/>
-    <mergeCell ref="AY92:AY93"/>
-    <mergeCell ref="AZ92:AZ93"/>
-    <mergeCell ref="AI92:AI93"/>
-    <mergeCell ref="AJ92:AJ93"/>
-    <mergeCell ref="AK92:AK93"/>
-    <mergeCell ref="AL92:AL93"/>
-    <mergeCell ref="AM92:AM93"/>
-    <mergeCell ref="AN92:AN93"/>
-    <mergeCell ref="AO92:AO93"/>
-    <mergeCell ref="AP92:AP93"/>
-    <mergeCell ref="AQ92:AQ93"/>
-    <mergeCell ref="Z92:Z93"/>
-    <mergeCell ref="AA92:AA93"/>
-    <mergeCell ref="AB92:AB93"/>
-    <mergeCell ref="AC92:AC93"/>
-    <mergeCell ref="AD92:AD93"/>
-    <mergeCell ref="AE92:AE93"/>
-    <mergeCell ref="AF92:AF93"/>
-    <mergeCell ref="AG92:AG93"/>
-    <mergeCell ref="AH92:AH93"/>
-    <mergeCell ref="Q92:Q93"/>
-    <mergeCell ref="R92:R93"/>
-    <mergeCell ref="S92:S93"/>
-    <mergeCell ref="T92:T93"/>
-    <mergeCell ref="U92:U93"/>
-    <mergeCell ref="V92:V93"/>
-    <mergeCell ref="W92:W93"/>
-    <mergeCell ref="X92:X93"/>
-    <mergeCell ref="Y92:Y93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="L92:L93"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="N92:N93"/>
-    <mergeCell ref="O92:O93"/>
-    <mergeCell ref="P92:P93"/>
-    <mergeCell ref="BL90:BL91"/>
-    <mergeCell ref="BM90:BM91"/>
-    <mergeCell ref="BN90:BN91"/>
-    <mergeCell ref="BO90:BO91"/>
-    <mergeCell ref="BP90:BP91"/>
-    <mergeCell ref="BQ90:BQ91"/>
-    <mergeCell ref="BR90:BR91"/>
-    <mergeCell ref="BS90:BS91"/>
-    <mergeCell ref="BT90:BT91"/>
-    <mergeCell ref="BC90:BC91"/>
-    <mergeCell ref="BD90:BD91"/>
-    <mergeCell ref="BE90:BE91"/>
-    <mergeCell ref="BF90:BF91"/>
-    <mergeCell ref="BG90:BG91"/>
-    <mergeCell ref="BH90:BH91"/>
-    <mergeCell ref="BI90:BI91"/>
-    <mergeCell ref="BJ90:BJ91"/>
-    <mergeCell ref="BK90:BK91"/>
-    <mergeCell ref="AT90:AT91"/>
-    <mergeCell ref="AU90:AU91"/>
-    <mergeCell ref="AV90:AV91"/>
-    <mergeCell ref="AW90:AW91"/>
-    <mergeCell ref="AX90:AX91"/>
-    <mergeCell ref="AY90:AY91"/>
-    <mergeCell ref="AZ90:AZ91"/>
-    <mergeCell ref="BA90:BA91"/>
-    <mergeCell ref="BB90:BB91"/>
-    <mergeCell ref="AK90:AK91"/>
-    <mergeCell ref="AL90:AL91"/>
-    <mergeCell ref="AM90:AM91"/>
-    <mergeCell ref="AN90:AN91"/>
-    <mergeCell ref="AO90:AO91"/>
-    <mergeCell ref="AP90:AP91"/>
-    <mergeCell ref="AQ90:AQ91"/>
-    <mergeCell ref="AR90:AR91"/>
-    <mergeCell ref="AS90:AS91"/>
-    <mergeCell ref="AB90:AB91"/>
-    <mergeCell ref="AC90:AC91"/>
-    <mergeCell ref="AD90:AD91"/>
-    <mergeCell ref="AE90:AE91"/>
-    <mergeCell ref="AF90:AF91"/>
-    <mergeCell ref="AG90:AG91"/>
-    <mergeCell ref="AH90:AH91"/>
-    <mergeCell ref="AI90:AI91"/>
-    <mergeCell ref="AJ90:AJ91"/>
-    <mergeCell ref="BN88:BN89"/>
-    <mergeCell ref="BO88:BO89"/>
-    <mergeCell ref="BP88:BP89"/>
-    <mergeCell ref="BQ88:BQ89"/>
-    <mergeCell ref="BR88:BR89"/>
-    <mergeCell ref="BS88:BS89"/>
-    <mergeCell ref="BT88:BT89"/>
-    <mergeCell ref="K90:K91"/>
-    <mergeCell ref="L90:L91"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="N90:N91"/>
-    <mergeCell ref="O90:O91"/>
-    <mergeCell ref="P90:P91"/>
-    <mergeCell ref="Q90:Q91"/>
-    <mergeCell ref="R90:R91"/>
-    <mergeCell ref="S90:S91"/>
-    <mergeCell ref="T90:T91"/>
-    <mergeCell ref="U90:U91"/>
-    <mergeCell ref="V90:V91"/>
-    <mergeCell ref="W90:W91"/>
-    <mergeCell ref="X90:X91"/>
-    <mergeCell ref="Y90:Y91"/>
-    <mergeCell ref="Z90:Z91"/>
-    <mergeCell ref="AA90:AA91"/>
-    <mergeCell ref="BE88:BE89"/>
-    <mergeCell ref="BF88:BF89"/>
-    <mergeCell ref="BG88:BG89"/>
-    <mergeCell ref="BH88:BH89"/>
-    <mergeCell ref="BI88:BI89"/>
-    <mergeCell ref="BJ88:BJ89"/>
-    <mergeCell ref="BK88:BK89"/>
-    <mergeCell ref="BL88:BL89"/>
-    <mergeCell ref="BM88:BM89"/>
-    <mergeCell ref="AV88:AV89"/>
-    <mergeCell ref="AW88:AW89"/>
-    <mergeCell ref="AX88:AX89"/>
-    <mergeCell ref="AY88:AY89"/>
-    <mergeCell ref="AZ88:AZ89"/>
-    <mergeCell ref="BA88:BA89"/>
-    <mergeCell ref="BB88:BB89"/>
-    <mergeCell ref="BC88:BC89"/>
-    <mergeCell ref="BD88:BD89"/>
-    <mergeCell ref="AM88:AM89"/>
-    <mergeCell ref="AN88:AN89"/>
-    <mergeCell ref="AO88:AO89"/>
-    <mergeCell ref="AP88:AP89"/>
-    <mergeCell ref="AQ88:AQ89"/>
-    <mergeCell ref="AR88:AR89"/>
-    <mergeCell ref="AS88:AS89"/>
-    <mergeCell ref="AT88:AT89"/>
-    <mergeCell ref="AU88:AU89"/>
-    <mergeCell ref="AD88:AD89"/>
-    <mergeCell ref="AE88:AE89"/>
-    <mergeCell ref="AF88:AF89"/>
-    <mergeCell ref="AG88:AG89"/>
-    <mergeCell ref="AH88:AH89"/>
-    <mergeCell ref="AI88:AI89"/>
-    <mergeCell ref="AJ88:AJ89"/>
-    <mergeCell ref="AK88:AK89"/>
-    <mergeCell ref="AL88:AL89"/>
-    <mergeCell ref="BS86:BS87"/>
-    <mergeCell ref="BT86:BT87"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="N88:N89"/>
-    <mergeCell ref="O88:O89"/>
-    <mergeCell ref="P88:P89"/>
-    <mergeCell ref="Q88:Q89"/>
-    <mergeCell ref="R88:R89"/>
-    <mergeCell ref="S88:S89"/>
-    <mergeCell ref="T88:T89"/>
-    <mergeCell ref="U88:U89"/>
-    <mergeCell ref="V88:V89"/>
-    <mergeCell ref="W88:W89"/>
-    <mergeCell ref="X88:X89"/>
-    <mergeCell ref="Y88:Y89"/>
-    <mergeCell ref="Z88:Z89"/>
-    <mergeCell ref="AA88:AA89"/>
-    <mergeCell ref="AB88:AB89"/>
-    <mergeCell ref="AC88:AC89"/>
-    <mergeCell ref="BJ86:BJ87"/>
-    <mergeCell ref="BK86:BK87"/>
-    <mergeCell ref="BL86:BL87"/>
-    <mergeCell ref="BM86:BM87"/>
-    <mergeCell ref="BN86:BN87"/>
-    <mergeCell ref="BO86:BO87"/>
-    <mergeCell ref="BP86:BP87"/>
-    <mergeCell ref="BQ86:BQ87"/>
-    <mergeCell ref="BR86:BR87"/>
-    <mergeCell ref="BA86:BA87"/>
-    <mergeCell ref="BB86:BB87"/>
-    <mergeCell ref="BC86:BC87"/>
-    <mergeCell ref="BD86:BD87"/>
-    <mergeCell ref="BE86:BE87"/>
-    <mergeCell ref="BF86:BF87"/>
-    <mergeCell ref="BG86:BG87"/>
-    <mergeCell ref="BH86:BH87"/>
-    <mergeCell ref="BI86:BI87"/>
-    <mergeCell ref="AR86:AR87"/>
-    <mergeCell ref="AS86:AS87"/>
-    <mergeCell ref="AT86:AT87"/>
-    <mergeCell ref="AU86:AU87"/>
-    <mergeCell ref="AV86:AV87"/>
-    <mergeCell ref="AW86:AW87"/>
-    <mergeCell ref="AX86:AX87"/>
-    <mergeCell ref="AY86:AY87"/>
-    <mergeCell ref="AZ86:AZ87"/>
-    <mergeCell ref="AI86:AI87"/>
-    <mergeCell ref="AJ86:AJ87"/>
-    <mergeCell ref="AK86:AK87"/>
-    <mergeCell ref="AL86:AL87"/>
-    <mergeCell ref="AM86:AM87"/>
-    <mergeCell ref="AN86:AN87"/>
-    <mergeCell ref="AO86:AO87"/>
-    <mergeCell ref="AP86:AP87"/>
-    <mergeCell ref="AQ86:AQ87"/>
-    <mergeCell ref="Z86:Z87"/>
-    <mergeCell ref="AA86:AA87"/>
-    <mergeCell ref="AB86:AB87"/>
-    <mergeCell ref="AC86:AC87"/>
-    <mergeCell ref="AD86:AD87"/>
-    <mergeCell ref="AE86:AE87"/>
-    <mergeCell ref="AF86:AF87"/>
-    <mergeCell ref="AG86:AG87"/>
-    <mergeCell ref="AH86:AH87"/>
-    <mergeCell ref="BO84:BO85"/>
-    <mergeCell ref="BP84:BP85"/>
-    <mergeCell ref="BQ84:BQ85"/>
-    <mergeCell ref="BR84:BR85"/>
-    <mergeCell ref="BS84:BS85"/>
-    <mergeCell ref="BT84:BT85"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="K86:K87"/>
-    <mergeCell ref="L86:L87"/>
-    <mergeCell ref="M86:M87"/>
-    <mergeCell ref="N86:N87"/>
-    <mergeCell ref="O86:O87"/>
-    <mergeCell ref="P86:P87"/>
-    <mergeCell ref="Q86:Q87"/>
-    <mergeCell ref="R86:R87"/>
-    <mergeCell ref="S86:S87"/>
-    <mergeCell ref="T86:T87"/>
-    <mergeCell ref="U86:U87"/>
-    <mergeCell ref="V86:V87"/>
-    <mergeCell ref="W86:W87"/>
-    <mergeCell ref="X86:X87"/>
-    <mergeCell ref="Y86:Y87"/>
-    <mergeCell ref="BF84:BF85"/>
-    <mergeCell ref="BG84:BG85"/>
-    <mergeCell ref="BH84:BH85"/>
-    <mergeCell ref="BI84:BI85"/>
-    <mergeCell ref="BJ84:BJ85"/>
-    <mergeCell ref="BK84:BK85"/>
-    <mergeCell ref="BL84:BL85"/>
-    <mergeCell ref="BM84:BM85"/>
-    <mergeCell ref="BN84:BN85"/>
-    <mergeCell ref="AW84:AW85"/>
-    <mergeCell ref="AX84:AX85"/>
-    <mergeCell ref="AY84:AY85"/>
-    <mergeCell ref="AZ84:AZ85"/>
-    <mergeCell ref="BA84:BA85"/>
-    <mergeCell ref="BB84:BB85"/>
-    <mergeCell ref="BC84:BC85"/>
-    <mergeCell ref="BD84:BD85"/>
-    <mergeCell ref="BE84:BE85"/>
-    <mergeCell ref="AN84:AN85"/>
-    <mergeCell ref="AO84:AO85"/>
-    <mergeCell ref="AP84:AP85"/>
-    <mergeCell ref="AQ84:AQ85"/>
-    <mergeCell ref="AR84:AR85"/>
-    <mergeCell ref="AS84:AS85"/>
-    <mergeCell ref="AT84:AT85"/>
-    <mergeCell ref="AU84:AU85"/>
-    <mergeCell ref="AV84:AV85"/>
-    <mergeCell ref="AE84:AE85"/>
-    <mergeCell ref="AF84:AF85"/>
-    <mergeCell ref="AG84:AG85"/>
-    <mergeCell ref="AH84:AH85"/>
-    <mergeCell ref="AI84:AI85"/>
-    <mergeCell ref="AJ84:AJ85"/>
-    <mergeCell ref="AK84:AK85"/>
-    <mergeCell ref="AL84:AL85"/>
-    <mergeCell ref="AM84:AM85"/>
-    <mergeCell ref="V84:V85"/>
-    <mergeCell ref="W84:W85"/>
-    <mergeCell ref="X84:X85"/>
-    <mergeCell ref="Y84:Y85"/>
-    <mergeCell ref="Z84:Z85"/>
-    <mergeCell ref="AA84:AA85"/>
-    <mergeCell ref="AB84:AB85"/>
-    <mergeCell ref="AC84:AC85"/>
-    <mergeCell ref="AD84:AD85"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="H90:H91"/>
-    <mergeCell ref="I90:I91"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="B88:C89"/>
-    <mergeCell ref="B90:C91"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="A84:E85"/>
-    <mergeCell ref="K84:K85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="O84:O85"/>
-    <mergeCell ref="P84:P85"/>
-    <mergeCell ref="Q84:Q85"/>
-    <mergeCell ref="R84:R85"/>
-    <mergeCell ref="S84:S85"/>
-    <mergeCell ref="T84:T85"/>
-    <mergeCell ref="U84:U85"/>
-    <mergeCell ref="A20:G21"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="BH2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BS2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AM2:AP2"/>
-    <mergeCell ref="AQ2:AT2"/>
-    <mergeCell ref="AU2:AX2"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="BH1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BS1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B26:E27"/>
-    <mergeCell ref="B24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B22:E23"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B36:E37"/>
-    <mergeCell ref="A34:G35"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B28:E29"/>
-    <mergeCell ref="B32:E33"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="B42:E43"/>
-    <mergeCell ref="B44:E45"/>
-    <mergeCell ref="A40:G41"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B38:E39"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="B50:E51"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="B46:E47"/>
-    <mergeCell ref="B48:E49"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="B52:E53"/>
-    <mergeCell ref="B56:E57"/>
-    <mergeCell ref="A58:G59"/>
-    <mergeCell ref="B74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="B60:E61"/>
-    <mergeCell ref="B66:E67"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="B62:E63"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="A68:G69"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="B76:E77"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AY1:BB1"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="A86:G87"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="B78:E79"/>
-    <mergeCell ref="B82:E83"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="B92:C93"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="BC1:BF1"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="B18:E19"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="AQ1:AT1"/>
-    <mergeCell ref="B94:C95"/>
-    <mergeCell ref="D94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="BA64:BA65"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="BS80:BS81"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B64:G65"/>
-    <mergeCell ref="B80:G81"/>
-    <mergeCell ref="Q30:Q31"/>
-    <mergeCell ref="AQ54:AQ55"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="B16:G17"/>
-    <mergeCell ref="B30:G31"/>
-    <mergeCell ref="B54:G55"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="B70:E71"/>
-    <mergeCell ref="B72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="Y96:Y97"/>
+    <mergeCell ref="Z96:Z97"/>
+    <mergeCell ref="AA96:AA97"/>
+    <mergeCell ref="AB96:AB97"/>
+    <mergeCell ref="AC96:AC97"/>
+    <mergeCell ref="AD96:AD97"/>
+    <mergeCell ref="AE96:AE97"/>
+    <mergeCell ref="AF96:AF97"/>
+    <mergeCell ref="AG96:AG97"/>
+    <mergeCell ref="AH96:AH97"/>
+    <mergeCell ref="AU96:AU97"/>
+    <mergeCell ref="AV96:AV97"/>
+    <mergeCell ref="AW96:AW97"/>
+    <mergeCell ref="AX96:AX97"/>
+    <mergeCell ref="AY96:AY97"/>
+    <mergeCell ref="AZ96:AZ97"/>
+    <mergeCell ref="AI96:AI97"/>
+    <mergeCell ref="AJ96:AJ97"/>
+    <mergeCell ref="AK96:AK97"/>
+    <mergeCell ref="AL96:AL97"/>
+    <mergeCell ref="AM96:AM97"/>
+    <mergeCell ref="AN96:AN97"/>
+    <mergeCell ref="AO96:AO97"/>
+    <mergeCell ref="AP96:AP97"/>
+    <mergeCell ref="AQ96:AQ97"/>
+    <mergeCell ref="AR96:AR97"/>
+    <mergeCell ref="AS96:AS97"/>
+    <mergeCell ref="AT96:AT97"/>
+    <mergeCell ref="BS96:BS97"/>
+    <mergeCell ref="BT96:BT97"/>
+    <mergeCell ref="BJ96:BJ97"/>
+    <mergeCell ref="BK96:BK97"/>
+    <mergeCell ref="BL96:BL97"/>
+    <mergeCell ref="BM96:BM97"/>
+    <mergeCell ref="BN96:BN97"/>
+    <mergeCell ref="BO96:BO97"/>
+    <mergeCell ref="BP96:BP97"/>
+    <mergeCell ref="BQ96:BQ97"/>
+    <mergeCell ref="BR96:BR97"/>
+    <mergeCell ref="BA96:BA97"/>
+    <mergeCell ref="BB96:BB97"/>
+    <mergeCell ref="BC96:BC97"/>
+    <mergeCell ref="BD96:BD97"/>
+    <mergeCell ref="BE96:BE97"/>
+    <mergeCell ref="BF96:BF97"/>
+    <mergeCell ref="BG96:BG97"/>
+    <mergeCell ref="BH96:BH97"/>
+    <mergeCell ref="BI96:BI97"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
